--- a/AstroLinks.xlsx
+++ b/AstroLinks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\albusmw.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77092561-8308-41E9-9842-D30D24E47A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62385CAC-850E-47EA-B4BF-F68AC80EE959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10005" yWindow="6585" windowWidth="21465" windowHeight="26235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19980" yWindow="6030" windowWidth="21465" windowHeight="26235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -135,9 +135,6 @@
     <t>(EN) AstroBin</t>
   </si>
   <si>
-    <t>Own products, 10Micron, PWI, …</t>
-  </si>
-  <si>
     <t>Sat images of the sun in multiple wavelengths</t>
   </si>
   <si>
@@ -172,6 +169,9 @@
   </si>
   <si>
     <t>https://sdo.gsfc.nasa.gov</t>
+  </si>
+  <si>
+    <t>Own products, 10Micron, PWI, and others</t>
   </si>
 </sst>
 </file>
@@ -514,7 +514,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,7 +624,7 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>20</v>
@@ -638,10 +638,10 @@
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -649,10 +649,10 @@
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -663,10 +663,10 @@
         <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -674,10 +674,10 @@
         <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -688,7 +688,7 @@
         <v>30</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -696,7 +696,7 @@
         <v>34</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -704,10 +704,10 @@
         <v>35</v>
       </c>
       <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/AstroLinks.xlsx
+++ b/AstroLinks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\albusmw.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62385CAC-850E-47EA-B4BF-F68AC80EE959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE3C938-26B2-4F86-9A74-67116E94DD3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19980" yWindow="6030" windowWidth="21465" windowHeight="26235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3915" yWindow="3990" windowWidth="21465" windowHeight="26235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="90">
   <si>
     <t>Manufacturers</t>
   </si>
@@ -172,6 +172,129 @@
   </si>
   <si>
     <t>Own products, 10Micron, PWI, and others</t>
+  </si>
+  <si>
+    <t>PHD2</t>
+  </si>
+  <si>
+    <t>Stellarium</t>
+  </si>
+  <si>
+    <t>Free open source planetarium</t>
+  </si>
+  <si>
+    <t>Free guiding software for astro mounts</t>
+  </si>
+  <si>
+    <t>APT</t>
+  </si>
+  <si>
+    <t>http://phobal.de/photo/blog/technical/software/APT</t>
+  </si>
+  <si>
+    <t>https://stellarium.org/de</t>
+  </si>
+  <si>
+    <t>https://openphdguiding.org</t>
+  </si>
+  <si>
+    <t>Software to guide, image, focus, …</t>
+  </si>
+  <si>
+    <t>NINA</t>
+  </si>
+  <si>
+    <t>https://nighttime-imaging.eu</t>
+  </si>
+  <si>
+    <t>http://eq-mod.sourceforge.net</t>
+  </si>
+  <si>
+    <t>EQMOD</t>
+  </si>
+  <si>
+    <t>Free software to control your EQ mount</t>
+  </si>
+  <si>
+    <t>PixInsight</t>
+  </si>
+  <si>
+    <t>Astro image processing software</t>
+  </si>
+  <si>
+    <t>https://pixinsight.com</t>
+  </si>
+  <si>
+    <t>Maxim DL</t>
+  </si>
+  <si>
+    <t>https://diffractionlimited.com/product/maxim-dl</t>
+  </si>
+  <si>
+    <t>DeepSkyStacker</t>
+  </si>
+  <si>
+    <t>PIPP</t>
+  </si>
+  <si>
+    <t>https://sites.google.com/site/astropipp</t>
+  </si>
+  <si>
+    <t>http://deepskystacker.free.fr/german</t>
+  </si>
+  <si>
+    <t>Free Planetary Imaging PreProcessor</t>
+  </si>
+  <si>
+    <t>ASCOM</t>
+  </si>
+  <si>
+    <t>https://ascom-standards.org</t>
+  </si>
+  <si>
+    <t>Universal Standard for Astronomy</t>
+  </si>
+  <si>
+    <t>Weather</t>
+  </si>
+  <si>
+    <t>https://clearoutside.com</t>
+  </si>
+  <si>
+    <t>Clear Outside</t>
+  </si>
+  <si>
+    <t>Astro Weather forecast</t>
+  </si>
+  <si>
+    <t>https://www.firstlightoptics.com</t>
+  </si>
+  <si>
+    <t>Big german astro dealer near munich</t>
+  </si>
+  <si>
+    <t>(GB) FirstLightOptics</t>
+  </si>
+  <si>
+    <t>English astro dealer</t>
+  </si>
+  <si>
+    <t>(DE) AstroShop</t>
+  </si>
+  <si>
+    <t>https://www.astroshop.de</t>
+  </si>
+  <si>
+    <t>Big german astro dealer in bavaria</t>
+  </si>
+  <si>
+    <t>AstroPixelProcessor (APP)</t>
+  </si>
+  <si>
+    <t>Free astro image processing software</t>
+  </si>
+  <si>
+    <t>https://www.astropixelprocessor.com</t>
   </si>
 </sst>
 </file>
@@ -511,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,7 +645,7 @@
     <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -615,98 +738,258 @@
       <c r="B8" t="s">
         <v>8</v>
       </c>
+      <c r="C8" t="s">
+        <v>81</v>
+      </c>
       <c r="D8" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>78</v>
+      </c>
+      <c r="C14" t="s">
+        <v>79</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>35</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C30" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>41</v>
       </c>
     </row>
@@ -719,16 +1002,30 @@
     <hyperlink ref="D6" r:id="rId5" xr:uid="{9AD4BABB-D934-4171-A739-B2298F33063F}"/>
     <hyperlink ref="D7" r:id="rId6" xr:uid="{344342D3-7511-4B9E-B249-4418AD0199BE}"/>
     <hyperlink ref="D8" r:id="rId7" xr:uid="{4EF4F687-5DA0-4139-8ED8-796CFD048723}"/>
-    <hyperlink ref="D9" r:id="rId8" xr:uid="{37D7C35D-E37D-46D4-A772-8C5F56A639FB}"/>
-    <hyperlink ref="D16" r:id="rId9" xr:uid="{DD799009-88CA-47D1-A62F-A369A7611629}"/>
-    <hyperlink ref="D15" r:id="rId10" xr:uid="{47871777-D164-4285-88D9-4711D0F09B7A}"/>
-    <hyperlink ref="D14" r:id="rId11" xr:uid="{CD4F6830-69C8-4883-9D38-40F7904D38BC}"/>
-    <hyperlink ref="D13" r:id="rId12" xr:uid="{F287F050-BDBD-48DA-9C9F-974F06AA77BE}"/>
-    <hyperlink ref="D12" r:id="rId13" xr:uid="{46C95A92-BF48-4811-9105-E8D5B1561956}"/>
-    <hyperlink ref="D11" r:id="rId14" xr:uid="{F39BDEEC-98CD-4603-8BB0-C3A8A97480DF}"/>
-    <hyperlink ref="D10" r:id="rId15" xr:uid="{F4EFC9A1-C16B-4301-9043-301231F70123}"/>
+    <hyperlink ref="D10" r:id="rId8" xr:uid="{37D7C35D-E37D-46D4-A772-8C5F56A639FB}"/>
+    <hyperlink ref="D30" r:id="rId9" xr:uid="{DD799009-88CA-47D1-A62F-A369A7611629}"/>
+    <hyperlink ref="D29" r:id="rId10" xr:uid="{47871777-D164-4285-88D9-4711D0F09B7A}"/>
+    <hyperlink ref="D28" r:id="rId11" xr:uid="{CD4F6830-69C8-4883-9D38-40F7904D38BC}"/>
+    <hyperlink ref="D27" r:id="rId12" xr:uid="{F287F050-BDBD-48DA-9C9F-974F06AA77BE}"/>
+    <hyperlink ref="D15" r:id="rId13" xr:uid="{46C95A92-BF48-4811-9105-E8D5B1561956}"/>
+    <hyperlink ref="D13" r:id="rId14" xr:uid="{F39BDEEC-98CD-4603-8BB0-C3A8A97480DF}"/>
+    <hyperlink ref="D12" r:id="rId15" xr:uid="{F4EFC9A1-C16B-4301-9043-301231F70123}"/>
+    <hyperlink ref="D16" r:id="rId16" xr:uid="{4CFC1F41-61FD-4074-855F-CF3EEE0D0FDE}"/>
+    <hyperlink ref="D17" r:id="rId17" xr:uid="{E74C0201-0319-40FB-A895-7E89AA462910}"/>
+    <hyperlink ref="D18" r:id="rId18" xr:uid="{1F51060D-CE80-4B4D-8BA3-277A92EE5ECB}"/>
+    <hyperlink ref="D19" r:id="rId19" xr:uid="{7FFDFD49-84C7-44D0-A42D-31A77AD96560}"/>
+    <hyperlink ref="D20" r:id="rId20" xr:uid="{25C2D0D0-29CE-44D1-92ED-0F0E9FDC6C3E}"/>
+    <hyperlink ref="D21" r:id="rId21" xr:uid="{B734E3CD-BAE2-41DD-B996-9058CD6AC298}"/>
+    <hyperlink ref="D22" r:id="rId22" xr:uid="{092C66D6-96F2-4CD7-AB26-5E0E2307F0CC}"/>
+    <hyperlink ref="D24" r:id="rId23" xr:uid="{3A8B895B-D350-4E71-843C-AA2F6E4308FA}"/>
+    <hyperlink ref="D25" r:id="rId24" xr:uid="{33FC1295-8080-4A43-970F-94C51D7E0D5C}"/>
+    <hyperlink ref="D26" r:id="rId25" xr:uid="{B0401EF0-1543-42B9-B581-1F0870C67BB1}"/>
+    <hyperlink ref="D14" r:id="rId26" xr:uid="{0C64FEE0-E696-4121-9E40-CDB19EA4F6DB}"/>
+    <hyperlink ref="D11" r:id="rId27" xr:uid="{53D67402-7738-4BDF-98B9-06D860D9BEAE}"/>
+    <hyperlink ref="D9" r:id="rId28" xr:uid="{1B5423F0-F04D-42F6-8909-FE8F05FD6139}"/>
+    <hyperlink ref="D23" r:id="rId29" xr:uid="{C17FC7E6-9650-47B0-ACBB-2F8314255584}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId30"/>
 </worksheet>
 </file>
--- a/AstroLinks.xlsx
+++ b/AstroLinks.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\albusmw.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE3C938-26B2-4F86-9A74-67116E94DD3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D12889-B155-4DC5-871C-4B6B6053C0C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3915" yWindow="3990" windowWidth="21465" windowHeight="26235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3915" yWindow="3990" windowWidth="21960" windowHeight="26235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Astro link list" sheetId="1" r:id="rId1"/>
+    <sheet name="Notes" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="184">
   <si>
     <t>Manufacturers</t>
   </si>
@@ -51,9 +52,6 @@
     <t>Dealers</t>
   </si>
   <si>
-    <t>(DE) Teleskop Express</t>
-  </si>
-  <si>
     <t>Category</t>
   </si>
   <si>
@@ -102,9 +100,6 @@
     <t>https://www.teleskop-express.de</t>
   </si>
   <si>
-    <t>(DE) Baader Planetarium</t>
-  </si>
-  <si>
     <t>Solar Dynamics Observatory</t>
   </si>
   <si>
@@ -117,24 +112,12 @@
     <t>Gaia Sky</t>
   </si>
   <si>
-    <t>(DE) Astrotreff</t>
-  </si>
-  <si>
     <t>Data sources</t>
   </si>
   <si>
     <t>Software</t>
   </si>
   <si>
-    <t>Forums</t>
-  </si>
-  <si>
-    <t>(DE) Astronomie.de</t>
-  </si>
-  <si>
-    <t>(EN) AstroBin</t>
-  </si>
-  <si>
     <t>Sat images of the sun in multiple wavelengths</t>
   </si>
   <si>
@@ -273,15 +256,9 @@
     <t>Big german astro dealer near munich</t>
   </si>
   <si>
-    <t>(GB) FirstLightOptics</t>
-  </si>
-  <si>
     <t>English astro dealer</t>
   </si>
   <si>
-    <t>(DE) AstroShop</t>
-  </si>
-  <si>
     <t>https://www.astroshop.de</t>
   </si>
   <si>
@@ -295,6 +272,312 @@
   </si>
   <si>
     <t>https://www.astropixelprocessor.com</t>
+  </si>
+  <si>
+    <t>Subcategory</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>Teleskop Express</t>
+  </si>
+  <si>
+    <t>AstroShop</t>
+  </si>
+  <si>
+    <t>FirstLightOptics</t>
+  </si>
+  <si>
+    <t>Imaging</t>
+  </si>
+  <si>
+    <t>Image Processing</t>
+  </si>
+  <si>
+    <t>Star maps, planing</t>
+  </si>
+  <si>
+    <t>Standards</t>
+  </si>
+  <si>
+    <t>Astrotreff</t>
+  </si>
+  <si>
+    <t>Astronomie.de</t>
+  </si>
+  <si>
+    <t>AstroBin</t>
+  </si>
+  <si>
+    <t>JPL Horizons</t>
+  </si>
+  <si>
+    <t>https://ssd.jpl.nasa.gov/horizons_batch.cgi</t>
+  </si>
+  <si>
+    <t>Get precise orbit parameters of planets, sats, …</t>
+  </si>
+  <si>
+    <t>Vixen</t>
+  </si>
+  <si>
+    <t>Telescopes</t>
+  </si>
+  <si>
+    <t>https://global.vixen.co.jp/en</t>
+  </si>
+  <si>
+    <t>Meade</t>
+  </si>
+  <si>
+    <t>Telescopes, Eyepieces</t>
+  </si>
+  <si>
+    <t>https://www.meade.com</t>
+  </si>
+  <si>
+    <t>Celestron</t>
+  </si>
+  <si>
+    <t>https://www.celestron.com</t>
+  </si>
+  <si>
+    <t>Skywatcher</t>
+  </si>
+  <si>
+    <t>https://skywatcher.com</t>
+  </si>
+  <si>
+    <t>Bresser</t>
+  </si>
+  <si>
+    <t>https://www.bresser.de/startseite</t>
+  </si>
+  <si>
+    <t>Own products and other brands</t>
+  </si>
+  <si>
+    <t>https://explorescientificusa.com</t>
+  </si>
+  <si>
+    <t>Explorer Scientific</t>
+  </si>
+  <si>
+    <t>https://williamoptics.com</t>
+  </si>
+  <si>
+    <t>William Optics</t>
+  </si>
+  <si>
+    <t>https://www.wega-telescopes.de</t>
+  </si>
+  <si>
+    <t>Wega Telescopes</t>
+  </si>
+  <si>
+    <t>German dealer near munich</t>
+  </si>
+  <si>
+    <t>Astro Physics</t>
+  </si>
+  <si>
+    <t>https://www.astro-physics.com</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Lacerta</t>
+  </si>
+  <si>
+    <t>https://lacerta-optics.com/index.php</t>
+  </si>
+  <si>
+    <t>Telescopes, MGEN3 guider</t>
+  </si>
+  <si>
+    <t>https://www.officinastellare.com</t>
+  </si>
+  <si>
+    <t>Officina Stellare</t>
+  </si>
+  <si>
+    <t>ASA</t>
+  </si>
+  <si>
+    <t>https://www.astrosysteme.com</t>
+  </si>
+  <si>
+    <t>Fornax</t>
+  </si>
+  <si>
+    <t>https://fornaxmounts.com</t>
+  </si>
+  <si>
+    <t>Mounts</t>
+  </si>
+  <si>
+    <t>iOptron</t>
+  </si>
+  <si>
+    <t>https://www.teleskop-spezialisten.de</t>
+  </si>
+  <si>
+    <t>Telekop-Spezialisten</t>
+  </si>
+  <si>
+    <t>German dealer (Karl Kloss) near munich</t>
+  </si>
+  <si>
+    <t>https://www.ioptron.com</t>
+  </si>
+  <si>
+    <t>Mounts, solar telescopes</t>
+  </si>
+  <si>
+    <t>Lunt</t>
+  </si>
+  <si>
+    <t>https://luntsolarsystems.com</t>
+  </si>
+  <si>
+    <t>Solar telescopes</t>
+  </si>
+  <si>
+    <t>https://www.apm-telescopes.de</t>
+  </si>
+  <si>
+    <t>APM</t>
+  </si>
+  <si>
+    <t>German dealer</t>
+  </si>
+  <si>
+    <t>Losmandy</t>
+  </si>
+  <si>
+    <t>http://www.losmandy.com</t>
+  </si>
+  <si>
+    <t>Mounts, Dovetails</t>
+  </si>
+  <si>
+    <t>https://www.rainbowastro.com</t>
+  </si>
+  <si>
+    <t>Rainbow Astro</t>
+  </si>
+  <si>
+    <t>https://www.geoptik.com</t>
+  </si>
+  <si>
+    <t>Geoptik</t>
+  </si>
+  <si>
+    <t>Cases, mount accesories, and more</t>
+  </si>
+  <si>
+    <t>German forums</t>
+  </si>
+  <si>
+    <t>International forums</t>
+  </si>
+  <si>
+    <t>More to read</t>
+  </si>
+  <si>
+    <t>Magazines</t>
+  </si>
+  <si>
+    <t>https://skyandtelescope.org</t>
+  </si>
+  <si>
+    <t>Sky &amp; Telescope</t>
+  </si>
+  <si>
+    <t>Sterne und Weltraum</t>
+  </si>
+  <si>
+    <t>https://www.spektrum.de/magazin/sterne-und-weltraum</t>
+  </si>
+  <si>
+    <t>Organisations</t>
+  </si>
+  <si>
+    <t>https://sternfreunde.de</t>
+  </si>
+  <si>
+    <t>Vereinigung der Sternfreunde e.V.</t>
+  </si>
+  <si>
+    <t>astronomie DAS MAGAZIN</t>
+  </si>
+  <si>
+    <t>https://www.astronomie-magazin.com</t>
+  </si>
+  <si>
+    <t>Part of the Spektrum publishing group</t>
+  </si>
+  <si>
+    <t>German magazine</t>
+  </si>
+  <si>
+    <t>Biggest US magazine</t>
+  </si>
+  <si>
+    <t>SkySafari</t>
+  </si>
+  <si>
+    <t>https://skysafariastronomy.com</t>
+  </si>
+  <si>
+    <t>iOS planetarium software</t>
+  </si>
+  <si>
+    <t>https://sternwarte-muenchen.de</t>
+  </si>
+  <si>
+    <t>Volkssternwarte München</t>
+  </si>
+  <si>
+    <t>Planetarium and public observatory in Munich</t>
+  </si>
+  <si>
+    <t>Forum for discussion, images and used stuff market</t>
+  </si>
+  <si>
+    <t>https://www.montidatenbank.de</t>
+  </si>
+  <si>
+    <t>Montidatenbank</t>
+  </si>
+  <si>
+    <t>(German) site with data for a lot of mounts</t>
+  </si>
+  <si>
+    <t>http://www.lichtverschmutzung.de</t>
+  </si>
+  <si>
+    <t>Initiative gegen Lichtverschmutzung</t>
+  </si>
+  <si>
+    <t>Working group of the VdS for a dark night sky</t>
+  </si>
+  <si>
+    <t>VdS - Größte Verein von Amateur-Astronomen im deutschsprachigen Raum</t>
+  </si>
+  <si>
+    <t>Daystar Filters</t>
+  </si>
+  <si>
+    <t>https://www.daystarfilters.com</t>
+  </si>
+  <si>
+    <t>Solar observation filters</t>
   </si>
 </sst>
 </file>
@@ -347,12 +630,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -634,398 +918,905 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="68.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="C4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="C5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="C6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="C9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="C10" t="s">
+        <v>181</v>
+      </c>
+      <c r="D10" t="s">
+        <v>183</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="C11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="C12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="C13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13" t="s">
+        <v>150</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="C14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="C15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="C16" t="s">
+        <v>143</v>
+      </c>
+      <c r="D16" t="s">
+        <v>145</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="C17" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="C18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="C19" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="C22" t="s">
+        <v>147</v>
+      </c>
+      <c r="D22" t="s">
+        <v>130</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="C23" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="C24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="C25" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2" t="s">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="C28" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="C29" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="C31" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" t="s">
+        <v>110</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="C32" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32" t="s">
+        <v>134</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="C33" t="s">
+        <v>141</v>
+      </c>
+      <c r="D33" t="s">
+        <v>142</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34" t="s">
+        <v>121</v>
+      </c>
+      <c r="D34" t="s">
+        <v>110</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" t="s">
+        <v>76</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="C37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="C38" t="s">
+        <v>95</v>
+      </c>
+      <c r="D38" t="s">
+        <v>97</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="C39" t="s">
+        <v>175</v>
+      </c>
+      <c r="D39" t="s">
+        <v>176</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" t="s">
+        <v>73</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="C42" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="C43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" t="s">
+        <v>51</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="C44" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" t="s">
+        <v>51</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+      <c r="C45" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" t="s">
+        <v>56</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+      <c r="C46" t="s">
+        <v>57</v>
+      </c>
+      <c r="D46" t="s">
+        <v>58</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
+      <c r="B47" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" t="s">
+        <v>60</v>
+      </c>
+      <c r="D47" t="s">
+        <v>58</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+      <c r="C48" t="s">
+        <v>79</v>
+      </c>
+      <c r="D48" t="s">
+        <v>58</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11" s="2" t="s">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+      <c r="C49" t="s">
+        <v>62</v>
+      </c>
+      <c r="D49" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="E49" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
+      <c r="B50" t="s">
+        <v>91</v>
+      </c>
+      <c r="C50" t="s">
+        <v>67</v>
+      </c>
+      <c r="D50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
+      <c r="B51" t="s">
+        <v>90</v>
+      </c>
+      <c r="C51" t="s">
+        <v>44</v>
+      </c>
+      <c r="D51" t="s">
+        <v>45</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="3"/>
+      <c r="C52" t="s">
+        <v>63</v>
+      </c>
+      <c r="D52" t="s">
+        <v>66</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="3"/>
+      <c r="C53" t="s">
+        <v>27</v>
+      </c>
+      <c r="D53" t="s">
+        <v>33</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="3"/>
+      <c r="C54" t="s">
+        <v>167</v>
+      </c>
+      <c r="D54" t="s">
+        <v>169</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B55" t="s">
+        <v>154</v>
+      </c>
+      <c r="C55" t="s">
+        <v>156</v>
+      </c>
+      <c r="D55" t="s">
+        <v>166</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="3"/>
+      <c r="C56" t="s">
+        <v>157</v>
+      </c>
+      <c r="D56" t="s">
+        <v>164</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="3"/>
+      <c r="C57" t="s">
+        <v>162</v>
+      </c>
+      <c r="D57" t="s">
+        <v>165</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="3"/>
+      <c r="B58" t="s">
+        <v>159</v>
+      </c>
+      <c r="C58" t="s">
+        <v>161</v>
+      </c>
+      <c r="D58" t="s">
+        <v>180</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="3"/>
+      <c r="C59" t="s">
+        <v>171</v>
+      </c>
+      <c r="D59" t="s">
+        <v>172</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="3"/>
+      <c r="C60" t="s">
+        <v>178</v>
+      </c>
+      <c r="D60" t="s">
+        <v>179</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>151</v>
+      </c>
+      <c r="C61" t="s">
+        <v>92</v>
+      </c>
+      <c r="D61" t="s">
+        <v>173</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>93</v>
+      </c>
+      <c r="D62" t="s">
+        <v>173</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>152</v>
+      </c>
+      <c r="C63" t="s">
+        <v>94</v>
+      </c>
+      <c r="D63" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+      <c r="E63" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C30" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>41</v>
-      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:E26">
+    <sortCondition ref="C2:C26"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{EAA06F39-2792-4A7A-B1D6-75F762ABC41D}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{CAC0A678-F393-44E3-9B6E-A3FDD2277086}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{F59CDE25-099F-4144-85B1-3DCBA78B3B70}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{3B22740C-A97D-425B-B5AF-49B3896D33EE}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{9AD4BABB-D934-4171-A739-B2298F33063F}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{344342D3-7511-4B9E-B249-4418AD0199BE}"/>
-    <hyperlink ref="D8" r:id="rId7" xr:uid="{4EF4F687-5DA0-4139-8ED8-796CFD048723}"/>
-    <hyperlink ref="D10" r:id="rId8" xr:uid="{37D7C35D-E37D-46D4-A772-8C5F56A639FB}"/>
-    <hyperlink ref="D30" r:id="rId9" xr:uid="{DD799009-88CA-47D1-A62F-A369A7611629}"/>
-    <hyperlink ref="D29" r:id="rId10" xr:uid="{47871777-D164-4285-88D9-4711D0F09B7A}"/>
-    <hyperlink ref="D28" r:id="rId11" xr:uid="{CD4F6830-69C8-4883-9D38-40F7904D38BC}"/>
-    <hyperlink ref="D27" r:id="rId12" xr:uid="{F287F050-BDBD-48DA-9C9F-974F06AA77BE}"/>
-    <hyperlink ref="D15" r:id="rId13" xr:uid="{46C95A92-BF48-4811-9105-E8D5B1561956}"/>
-    <hyperlink ref="D13" r:id="rId14" xr:uid="{F39BDEEC-98CD-4603-8BB0-C3A8A97480DF}"/>
-    <hyperlink ref="D12" r:id="rId15" xr:uid="{F4EFC9A1-C16B-4301-9043-301231F70123}"/>
-    <hyperlink ref="D16" r:id="rId16" xr:uid="{4CFC1F41-61FD-4074-855F-CF3EEE0D0FDE}"/>
-    <hyperlink ref="D17" r:id="rId17" xr:uid="{E74C0201-0319-40FB-A895-7E89AA462910}"/>
-    <hyperlink ref="D18" r:id="rId18" xr:uid="{1F51060D-CE80-4B4D-8BA3-277A92EE5ECB}"/>
-    <hyperlink ref="D19" r:id="rId19" xr:uid="{7FFDFD49-84C7-44D0-A42D-31A77AD96560}"/>
-    <hyperlink ref="D20" r:id="rId20" xr:uid="{25C2D0D0-29CE-44D1-92ED-0F0E9FDC6C3E}"/>
-    <hyperlink ref="D21" r:id="rId21" xr:uid="{B734E3CD-BAE2-41DD-B996-9058CD6AC298}"/>
-    <hyperlink ref="D22" r:id="rId22" xr:uid="{092C66D6-96F2-4CD7-AB26-5E0E2307F0CC}"/>
-    <hyperlink ref="D24" r:id="rId23" xr:uid="{3A8B895B-D350-4E71-843C-AA2F6E4308FA}"/>
-    <hyperlink ref="D25" r:id="rId24" xr:uid="{33FC1295-8080-4A43-970F-94C51D7E0D5C}"/>
-    <hyperlink ref="D26" r:id="rId25" xr:uid="{B0401EF0-1543-42B9-B581-1F0870C67BB1}"/>
-    <hyperlink ref="D14" r:id="rId26" xr:uid="{0C64FEE0-E696-4121-9E40-CDB19EA4F6DB}"/>
-    <hyperlink ref="D11" r:id="rId27" xr:uid="{53D67402-7738-4BDF-98B9-06D860D9BEAE}"/>
-    <hyperlink ref="D9" r:id="rId28" xr:uid="{1B5423F0-F04D-42F6-8909-FE8F05FD6139}"/>
-    <hyperlink ref="D23" r:id="rId29" xr:uid="{C17FC7E6-9650-47B0-ACBB-2F8314255584}"/>
+    <hyperlink ref="E26" r:id="rId1" xr:uid="{EAA06F39-2792-4A7A-B1D6-75F762ABC41D}"/>
+    <hyperlink ref="E21" r:id="rId2" xr:uid="{CAC0A678-F393-44E3-9B6E-A3FDD2277086}"/>
+    <hyperlink ref="E7" r:id="rId3" xr:uid="{F59CDE25-099F-4144-85B1-3DCBA78B3B70}"/>
+    <hyperlink ref="E3" r:id="rId4" xr:uid="{3B22740C-A97D-425B-B5AF-49B3896D33EE}"/>
+    <hyperlink ref="E2" r:id="rId5" xr:uid="{9AD4BABB-D934-4171-A739-B2298F33063F}"/>
+    <hyperlink ref="E20" r:id="rId6" xr:uid="{344342D3-7511-4B9E-B249-4418AD0199BE}"/>
+    <hyperlink ref="E27" r:id="rId7" xr:uid="{4EF4F687-5DA0-4139-8ED8-796CFD048723}"/>
+    <hyperlink ref="E30" r:id="rId8" xr:uid="{37D7C35D-E37D-46D4-A772-8C5F56A639FB}"/>
+    <hyperlink ref="E63" r:id="rId9" xr:uid="{DD799009-88CA-47D1-A62F-A369A7611629}"/>
+    <hyperlink ref="E62" r:id="rId10" xr:uid="{47871777-D164-4285-88D9-4711D0F09B7A}"/>
+    <hyperlink ref="E61" r:id="rId11" xr:uid="{CD4F6830-69C8-4883-9D38-40F7904D38BC}"/>
+    <hyperlink ref="E53" r:id="rId12" xr:uid="{F287F050-BDBD-48DA-9C9F-974F06AA77BE}"/>
+    <hyperlink ref="E41" r:id="rId13" xr:uid="{46C95A92-BF48-4811-9105-E8D5B1561956}"/>
+    <hyperlink ref="E37" r:id="rId14" xr:uid="{F39BDEEC-98CD-4603-8BB0-C3A8A97480DF}"/>
+    <hyperlink ref="E36" r:id="rId15" xr:uid="{F4EFC9A1-C16B-4301-9043-301231F70123}"/>
+    <hyperlink ref="E42" r:id="rId16" xr:uid="{4CFC1F41-61FD-4074-855F-CF3EEE0D0FDE}"/>
+    <hyperlink ref="E51" r:id="rId17" xr:uid="{E74C0201-0319-40FB-A895-7E89AA462910}"/>
+    <hyperlink ref="E43" r:id="rId18" xr:uid="{1F51060D-CE80-4B4D-8BA3-277A92EE5ECB}"/>
+    <hyperlink ref="E44" r:id="rId19" xr:uid="{7FFDFD49-84C7-44D0-A42D-31A77AD96560}"/>
+    <hyperlink ref="E45" r:id="rId20" xr:uid="{25C2D0D0-29CE-44D1-92ED-0F0E9FDC6C3E}"/>
+    <hyperlink ref="E46" r:id="rId21" xr:uid="{B734E3CD-BAE2-41DD-B996-9058CD6AC298}"/>
+    <hyperlink ref="E47" r:id="rId22" xr:uid="{092C66D6-96F2-4CD7-AB26-5E0E2307F0CC}"/>
+    <hyperlink ref="E49" r:id="rId23" xr:uid="{3A8B895B-D350-4E71-843C-AA2F6E4308FA}"/>
+    <hyperlink ref="E52" r:id="rId24" xr:uid="{33FC1295-8080-4A43-970F-94C51D7E0D5C}"/>
+    <hyperlink ref="E50" r:id="rId25" xr:uid="{B0401EF0-1543-42B9-B581-1F0870C67BB1}"/>
+    <hyperlink ref="E40" r:id="rId26" xr:uid="{0C64FEE0-E696-4121-9E40-CDB19EA4F6DB}"/>
+    <hyperlink ref="E35" r:id="rId27" xr:uid="{53D67402-7738-4BDF-98B9-06D860D9BEAE}"/>
+    <hyperlink ref="E28" r:id="rId28" xr:uid="{1B5423F0-F04D-42F6-8909-FE8F05FD6139}"/>
+    <hyperlink ref="E48" r:id="rId29" xr:uid="{C17FC7E6-9650-47B0-ACBB-2F8314255584}"/>
+    <hyperlink ref="E38" r:id="rId30" xr:uid="{9BFC5734-BDBE-4EBF-8D4A-2F3CD3EE5837}"/>
+    <hyperlink ref="E24" r:id="rId31" xr:uid="{EFFC63C1-3263-4F38-BEF9-B44368779D7D}"/>
+    <hyperlink ref="E18" r:id="rId32" xr:uid="{4C0B3322-8974-41C4-B9BC-9DE774765E48}"/>
+    <hyperlink ref="E9" r:id="rId33" xr:uid="{C6090F8D-793A-4C1C-AFF0-60C9FEAA5436}"/>
+    <hyperlink ref="E23" r:id="rId34" xr:uid="{ACE44516-17AE-444F-B2CC-1E78A89B32A2}"/>
+    <hyperlink ref="E8" r:id="rId35" xr:uid="{C9527192-9DE3-4AA5-B13F-70034E74ADB5}"/>
+    <hyperlink ref="E31" r:id="rId36" xr:uid="{4D054C5B-6023-4E6B-8AA6-E5C79A87AA39}"/>
+    <hyperlink ref="E11" r:id="rId37" xr:uid="{0A58703F-D1E1-43E7-8F28-75AFF060DFF4}"/>
+    <hyperlink ref="E25" r:id="rId38" xr:uid="{85AF3A0C-7406-4B59-8193-F9C3F258640A}"/>
+    <hyperlink ref="E29" r:id="rId39" xr:uid="{015FB7DB-2517-4753-B06A-D6ABBDB36E96}"/>
+    <hyperlink ref="E6" r:id="rId40" xr:uid="{0FF20540-E8C7-46DE-95B1-B568CC1948D2}"/>
+    <hyperlink ref="E34" r:id="rId41" xr:uid="{C224013A-1493-4548-AF5F-4905C3B22431}"/>
+    <hyperlink ref="E15" r:id="rId42" xr:uid="{17FE1EB0-0172-49C3-86E9-A6D3177DC278}"/>
+    <hyperlink ref="E19" r:id="rId43" xr:uid="{DF4010D9-214B-4A7F-9526-F58FD6DA0F0F}"/>
+    <hyperlink ref="E5" r:id="rId44" xr:uid="{97BE137A-9291-4955-A9AB-7FF935D31A68}"/>
+    <hyperlink ref="E12" r:id="rId45" xr:uid="{A5548DC6-C4DB-4552-A96A-7596CD5F02ED}"/>
+    <hyperlink ref="E32" r:id="rId46" xr:uid="{5D837EE1-4E85-4FFC-86B9-C16A41C4A66C}"/>
+    <hyperlink ref="E14" r:id="rId47" xr:uid="{823C24EF-1DA9-44C2-81EE-E53E8AB0BEFC}"/>
+    <hyperlink ref="E17" r:id="rId48" xr:uid="{91761C8E-B635-4491-8C95-4E92CB3BA4FB}"/>
+    <hyperlink ref="E33" r:id="rId49" xr:uid="{76081988-14EC-453F-967D-0268C5DA7777}"/>
+    <hyperlink ref="E4" r:id="rId50" xr:uid="{9CE86829-0239-48FF-A3D3-A7E7BF54D49B}"/>
+    <hyperlink ref="E16" r:id="rId51" xr:uid="{F4959ACE-BAAD-4BBF-A3A3-74BCDAE0A5DB}"/>
+    <hyperlink ref="E22" r:id="rId52" xr:uid="{7ADB43B5-35FA-4D42-988A-B2D1294BA04B}"/>
+    <hyperlink ref="E13" r:id="rId53" xr:uid="{B71E3A4C-0BE4-418A-AD44-A3B9C80A8D4D}"/>
+    <hyperlink ref="E55" r:id="rId54" xr:uid="{3372A9D1-D915-4DA8-B562-4F013CBDFF76}"/>
+    <hyperlink ref="E56" r:id="rId55" xr:uid="{39149B7F-BBEE-4473-BF84-CFE54479256C}"/>
+    <hyperlink ref="E58" r:id="rId56" xr:uid="{DB6705BF-0FC9-4D4D-A073-C2F2B8EA2793}"/>
+    <hyperlink ref="E57" r:id="rId57" xr:uid="{38E211F4-5E12-4479-847B-6B28228032FD}"/>
+    <hyperlink ref="E54" r:id="rId58" xr:uid="{9CD2469D-1662-4D5A-8280-5F952192CF30}"/>
+    <hyperlink ref="E59" r:id="rId59" xr:uid="{070970E4-CFED-4A08-BDD0-670D25B8D207}"/>
+    <hyperlink ref="E39" r:id="rId60" xr:uid="{0076E308-B71E-45FD-BC55-48C21C5B96AF}"/>
+    <hyperlink ref="E60" r:id="rId61" xr:uid="{763A828E-7BC6-4D90-8EEF-4CD02DB7C3F0}"/>
+    <hyperlink ref="E10" r:id="rId62" xr:uid="{E211F1CB-64DC-42B2-82D4-109795429332}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId30"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId63"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9660FEEF-D01E-46FB-B675-E8067BA1B9C2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/AstroLinks.xlsx
+++ b/AstroLinks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\albusmw.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D12889-B155-4DC5-871C-4B6B6053C0C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04FCE8A-F50A-4E5C-B80C-7E25E0CAD248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3915" yWindow="3990" windowWidth="21960" windowHeight="26235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6210" yWindow="5685" windowWidth="40695" windowHeight="26235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Astro link list" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="252">
   <si>
     <t>Manufacturers</t>
   </si>
@@ -568,9 +568,6 @@
     <t>Working group of the VdS for a dark night sky</t>
   </si>
   <si>
-    <t>VdS - Größte Verein von Amateur-Astronomen im deutschsprachigen Raum</t>
-  </si>
-  <si>
     <t>Daystar Filters</t>
   </si>
   <si>
@@ -578,6 +575,213 @@
   </si>
   <si>
     <t>Solar observation filters</t>
+  </si>
+  <si>
+    <t>Vaonis</t>
+  </si>
+  <si>
+    <t>Mount-telescope-camera-computer system</t>
+  </si>
+  <si>
+    <t>https://vaonis.com</t>
+  </si>
+  <si>
+    <t>IRIS</t>
+  </si>
+  <si>
+    <t>http://www.astrosurf.com/buil/iris-software.html</t>
+  </si>
+  <si>
+    <t>https://www.otelescope.com/store/category/2-backyardeos</t>
+  </si>
+  <si>
+    <t>BackyardEOS</t>
+  </si>
+  <si>
+    <t>Make your Canon EOS camera an astro camera</t>
+  </si>
+  <si>
+    <t>https://www.otelescope.com/store/category/4-backyardnikon</t>
+  </si>
+  <si>
+    <t>BackyardNikon</t>
+  </si>
+  <si>
+    <t>Make your Nikon camera an astro camera</t>
+  </si>
+  <si>
+    <t>https://www.avalon-instruments.com</t>
+  </si>
+  <si>
+    <t>Avalon Instruments</t>
+  </si>
+  <si>
+    <t>https://gong2.nso.edu/products/tableView/table.php?configFile=configs/hAlpha.cfg</t>
+  </si>
+  <si>
+    <t>GONG</t>
+  </si>
+  <si>
+    <t>National Solar Observatory - Global Oscillation Network Group</t>
+  </si>
+  <si>
+    <t>Sun</t>
+  </si>
+  <si>
+    <t>Planets, moving objects</t>
+  </si>
+  <si>
+    <t>General databases</t>
+  </si>
+  <si>
+    <t>Interstellar objects</t>
+  </si>
+  <si>
+    <t>https://vizier.u-strasbg.fr/viz-bin/VizieR</t>
+  </si>
+  <si>
+    <t>VizierR</t>
+  </si>
+  <si>
+    <t>http://simbad.u-strasbg.fr/simbad</t>
+  </si>
+  <si>
+    <t>SIMBAD</t>
+  </si>
+  <si>
+    <t>Aladin</t>
+  </si>
+  <si>
+    <t>https://aladin.u-strasbg.fr/aladin.gml</t>
+  </si>
+  <si>
+    <t>https://solarspectrumopticalfilters.com</t>
+  </si>
+  <si>
+    <t>Solar Spectrum Filters</t>
+  </si>
+  <si>
+    <t>Sun observation</t>
+  </si>
+  <si>
+    <t>FITSWork</t>
+  </si>
+  <si>
+    <t>https://www.fitswork.de/software</t>
+  </si>
+  <si>
+    <t>Free software to work with FITS format astro image files</t>
+  </si>
+  <si>
+    <t>VdS - Größte deutschsprachiger Verein Amateur-Astronomen</t>
+  </si>
+  <si>
+    <t>http://www.gs-telescope.com</t>
+  </si>
+  <si>
+    <t>GSO</t>
+  </si>
+  <si>
+    <t>https://www.omegon.eu/de</t>
+  </si>
+  <si>
+    <t>Omegon</t>
+  </si>
+  <si>
+    <t>Optics, sky domes</t>
+  </si>
+  <si>
+    <t>Pentax</t>
+  </si>
+  <si>
+    <t>https://www.ricoh-imaging.eu/de_de/pentax/sport-optics/eyepieces</t>
+  </si>
+  <si>
+    <t>Binoculars, Eyepieces</t>
+  </si>
+  <si>
+    <t>Taiwan manufacturer; labeled products for dealers</t>
+  </si>
+  <si>
+    <t>https://www.televue.com</t>
+  </si>
+  <si>
+    <t>TeleVue</t>
+  </si>
+  <si>
+    <t>Telescopes, eyepieces, mounts</t>
+  </si>
+  <si>
+    <t>Telescopes, eyepieces</t>
+  </si>
+  <si>
+    <t>https://www.altairastro.com</t>
+  </si>
+  <si>
+    <t>Altair</t>
+  </si>
+  <si>
+    <t>Cameras, branded telescopes</t>
+  </si>
+  <si>
+    <t>https://www.astrel-instruments.com</t>
+  </si>
+  <si>
+    <t>Astrel Instruments</t>
+  </si>
+  <si>
+    <t>Cameras</t>
+  </si>
+  <si>
+    <t>https://www.astrolumina.de</t>
+  </si>
+  <si>
+    <t>Astrolumina</t>
+  </si>
+  <si>
+    <t>German dealer (Michael Breite)</t>
+  </si>
+  <si>
+    <t>Atik</t>
+  </si>
+  <si>
+    <t>https://www.atik-cameras.com</t>
+  </si>
+  <si>
+    <t>Finger Lages / FLIR</t>
+  </si>
+  <si>
+    <t>https://www.flicamera.com</t>
+  </si>
+  <si>
+    <t>https://www.gxccd.com/</t>
+  </si>
+  <si>
+    <t>Moravian Instuments</t>
+  </si>
+  <si>
+    <t>QSI</t>
+  </si>
+  <si>
+    <t>https://qsimaging.com</t>
+  </si>
+  <si>
+    <t>SBIG (now Diffraction)</t>
+  </si>
+  <si>
+    <t>https://diffractionlimited.com/astrophotography-cameras</t>
+  </si>
+  <si>
+    <t>https://www.sxccd.com</t>
+  </si>
+  <si>
+    <t>Starlight Xpress</t>
+  </si>
+  <si>
+    <t>https://www.theimagingsource.de</t>
+  </si>
+  <si>
+    <t>The Imaging Source</t>
   </si>
 </sst>
 </file>
@@ -918,19 +1122,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="68.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="78" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -979,833 +1183,1164 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="C4" t="s">
-        <v>141</v>
+        <v>230</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>231</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>140</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="C5" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="C6" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>233</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>234</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="C8" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D8" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>238</v>
       </c>
       <c r="D9" t="s">
-        <v>99</v>
+        <v>234</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>105</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="C10" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="D10" t="s">
-        <v>183</v>
+        <v>16</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="C12" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="D12" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="C13" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="D13" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>148</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="C14" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="D14" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="C15" t="s">
-        <v>121</v>
+        <v>240</v>
       </c>
       <c r="D15" t="s">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>122</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="C16" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="D16" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="C17" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D17" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="C18" t="s">
-        <v>101</v>
+        <v>217</v>
       </c>
       <c r="D18" t="s">
-        <v>102</v>
+        <v>224</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>103</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="C19" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D19" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>121</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>123</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>22</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="C21" t="s">
-        <v>2</v>
+        <v>143</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>145</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>18</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="C22" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="D22" t="s">
-        <v>130</v>
+        <v>228</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>146</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="C23" t="s">
-        <v>106</v>
+        <v>243</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>234</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>107</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="C24" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="D24" t="s">
         <v>99</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="C25" t="s">
-        <v>114</v>
+        <v>219</v>
       </c>
       <c r="D25" t="s">
-        <v>99</v>
+        <v>220</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>113</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="C26" t="s">
-        <v>1</v>
+        <v>221</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>223</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>13</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" t="s">
-        <v>83</v>
-      </c>
+      <c r="A27" s="3"/>
       <c r="C27" t="s">
-        <v>85</v>
+        <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="C28" t="s">
-        <v>86</v>
+        <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="C29" t="s">
-        <v>116</v>
+        <v>244</v>
       </c>
       <c r="D29" t="s">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>115</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="C30" t="s">
-        <v>3</v>
+        <v>147</v>
       </c>
       <c r="D30" t="s">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>19</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="C31" t="s">
-        <v>108</v>
+        <v>246</v>
       </c>
       <c r="D31" t="s">
-        <v>110</v>
+        <v>234</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>109</v>
+        <v>247</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="C32" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="D32" t="s">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="C33" t="s">
-        <v>141</v>
+        <v>249</v>
       </c>
       <c r="D33" t="s">
-        <v>142</v>
+        <v>14</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>140</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
-      <c r="B34" t="s">
-        <v>120</v>
-      </c>
       <c r="C34" t="s">
-        <v>121</v>
+        <v>251</v>
       </c>
       <c r="D34" t="s">
-        <v>110</v>
+        <v>234</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>122</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
-      <c r="B35" t="s">
-        <v>84</v>
-      </c>
       <c r="C35" t="s">
-        <v>87</v>
+        <v>226</v>
       </c>
       <c r="D35" t="s">
-        <v>76</v>
+        <v>227</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>74</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="A36" s="3"/>
       <c r="C36" t="s">
-        <v>24</v>
+        <v>183</v>
       </c>
       <c r="D36" t="s">
-        <v>30</v>
+        <v>184</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>41</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="C37" t="s">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="D37" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="C38" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="D38" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="C39" t="s">
-        <v>175</v>
+        <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>174</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>70</v>
+      <c r="A40" s="3"/>
+      <c r="B40" t="s">
+        <v>211</v>
       </c>
       <c r="C40" t="s">
-        <v>72</v>
+        <v>180</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>182</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>71</v>
+        <v>181</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B41" t="s">
-        <v>88</v>
-      </c>
+      <c r="A41" s="3"/>
       <c r="C41" t="s">
-        <v>26</v>
+        <v>137</v>
       </c>
       <c r="D41" t="s">
-        <v>32</v>
+        <v>139</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>39</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="C42" t="s">
-        <v>43</v>
+        <v>210</v>
       </c>
       <c r="D42" t="s">
-        <v>46</v>
+        <v>182</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>50</v>
+        <v>209</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
+      <c r="A43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>83</v>
+      </c>
       <c r="C43" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="D43" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="C44" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="D44" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="C45" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="D45" t="s">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="C46" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
-      <c r="B47" t="s">
-        <v>89</v>
-      </c>
       <c r="C47" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="D47" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="C48" t="s">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="D48" t="s">
-        <v>58</v>
+        <v>134</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>81</v>
+        <v>132</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="C49" t="s">
-        <v>62</v>
+        <v>236</v>
       </c>
       <c r="D49" t="s">
-        <v>80</v>
+        <v>237</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>65</v>
+        <v>235</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
-      <c r="B50" t="s">
-        <v>91</v>
-      </c>
       <c r="C50" t="s">
-        <v>67</v>
+        <v>141</v>
       </c>
       <c r="D50" t="s">
-        <v>69</v>
+        <v>142</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>68</v>
+        <v>140</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="C51" t="s">
-        <v>44</v>
+        <v>121</v>
       </c>
       <c r="D51" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>49</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
+      <c r="B52" t="s">
+        <v>84</v>
+      </c>
       <c r="C52" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="D52" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
+      <c r="A53" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B53" t="s">
+        <v>199</v>
+      </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D53" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="C54" t="s">
-        <v>167</v>
+        <v>25</v>
       </c>
       <c r="D54" t="s">
-        <v>169</v>
+        <v>31</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>168</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B55" t="s">
-        <v>154</v>
-      </c>
+      <c r="A55" s="3"/>
       <c r="C55" t="s">
-        <v>156</v>
+        <v>197</v>
       </c>
       <c r="D55" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>155</v>
+        <v>196</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
+      <c r="B56" t="s">
+        <v>200</v>
+      </c>
       <c r="C56" t="s">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c r="D56" t="s">
-        <v>164</v>
+        <v>97</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>158</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
+      <c r="B57" t="s">
+        <v>202</v>
+      </c>
       <c r="C57" t="s">
-        <v>162</v>
-      </c>
-      <c r="D57" t="s">
-        <v>165</v>
+        <v>204</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>163</v>
+        <v>203</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
-      <c r="B58" t="s">
-        <v>159</v>
-      </c>
       <c r="C58" t="s">
-        <v>161</v>
-      </c>
-      <c r="D58" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>160</v>
+        <v>208</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="C59" t="s">
-        <v>171</v>
-      </c>
-      <c r="D59" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
+      <c r="B60" t="s">
+        <v>201</v>
+      </c>
       <c r="C60" t="s">
+        <v>175</v>
+      </c>
+      <c r="D60" t="s">
+        <v>176</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61" t="s">
+        <v>72</v>
+      </c>
+      <c r="D61" t="s">
+        <v>73</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B62" t="s">
+        <v>88</v>
+      </c>
+      <c r="C62" t="s">
+        <v>26</v>
+      </c>
+      <c r="D62" t="s">
+        <v>32</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="3"/>
+      <c r="C63" t="s">
+        <v>43</v>
+      </c>
+      <c r="D63" t="s">
+        <v>46</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="3"/>
+      <c r="C64" t="s">
+        <v>47</v>
+      </c>
+      <c r="D64" t="s">
+        <v>51</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="3"/>
+      <c r="C65" t="s">
+        <v>52</v>
+      </c>
+      <c r="D65" t="s">
+        <v>51</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="3"/>
+      <c r="C66" t="s">
+        <v>189</v>
+      </c>
+      <c r="D66" t="s">
+        <v>190</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="3"/>
+      <c r="C67" t="s">
+        <v>192</v>
+      </c>
+      <c r="D67" t="s">
+        <v>193</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="3"/>
+      <c r="C68" t="s">
+        <v>55</v>
+      </c>
+      <c r="D68" t="s">
+        <v>56</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="3"/>
+      <c r="C69" t="s">
+        <v>57</v>
+      </c>
+      <c r="D69" t="s">
+        <v>58</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="3"/>
+      <c r="B70" t="s">
+        <v>89</v>
+      </c>
+      <c r="C70" t="s">
+        <v>60</v>
+      </c>
+      <c r="D70" t="s">
+        <v>58</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="3"/>
+      <c r="C71" t="s">
+        <v>79</v>
+      </c>
+      <c r="D71" t="s">
+        <v>58</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="3"/>
+      <c r="C72" t="s">
+        <v>62</v>
+      </c>
+      <c r="D72" t="s">
+        <v>80</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="3"/>
+      <c r="C73" t="s">
+        <v>212</v>
+      </c>
+      <c r="D73" t="s">
+        <v>214</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="3"/>
+      <c r="C74" t="s">
+        <v>186</v>
+      </c>
+      <c r="D74" t="s">
+        <v>80</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="3"/>
+      <c r="B75" t="s">
+        <v>91</v>
+      </c>
+      <c r="C75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D75" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="3"/>
+      <c r="B76" t="s">
+        <v>90</v>
+      </c>
+      <c r="C76" t="s">
+        <v>44</v>
+      </c>
+      <c r="D76" t="s">
+        <v>45</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="3"/>
+      <c r="C77" t="s">
+        <v>63</v>
+      </c>
+      <c r="D77" t="s">
+        <v>66</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="3"/>
+      <c r="C78" t="s">
+        <v>27</v>
+      </c>
+      <c r="D78" t="s">
+        <v>33</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="3"/>
+      <c r="C79" t="s">
+        <v>167</v>
+      </c>
+      <c r="D79" t="s">
+        <v>169</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B80" t="s">
+        <v>154</v>
+      </c>
+      <c r="C80" t="s">
+        <v>156</v>
+      </c>
+      <c r="D80" t="s">
+        <v>166</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="3"/>
+      <c r="C81" t="s">
+        <v>157</v>
+      </c>
+      <c r="D81" t="s">
+        <v>164</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="3"/>
+      <c r="C82" t="s">
+        <v>162</v>
+      </c>
+      <c r="D82" t="s">
+        <v>165</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="3"/>
+      <c r="B83" t="s">
+        <v>159</v>
+      </c>
+      <c r="C83" t="s">
+        <v>161</v>
+      </c>
+      <c r="D83" t="s">
+        <v>215</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="3"/>
+      <c r="C84" t="s">
+        <v>171</v>
+      </c>
+      <c r="D84" t="s">
+        <v>172</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="3"/>
+      <c r="C85" t="s">
         <v>178</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D85" t="s">
         <v>179</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="E85" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
         <v>151</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C86" t="s">
         <v>92</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D86" t="s">
         <v>173</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="E86" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C62" t="s">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C87" t="s">
         <v>93</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D87" t="s">
         <v>173</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="E87" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
         <v>152</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C88" t="s">
         <v>94</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D88" t="s">
         <v>34</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="E88" s="2" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:E26">
-    <sortCondition ref="C2:C26"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:E39">
+    <sortCondition ref="C2:C39"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="E26" r:id="rId1" xr:uid="{EAA06F39-2792-4A7A-B1D6-75F762ABC41D}"/>
-    <hyperlink ref="E21" r:id="rId2" xr:uid="{CAC0A678-F393-44E3-9B6E-A3FDD2277086}"/>
-    <hyperlink ref="E7" r:id="rId3" xr:uid="{F59CDE25-099F-4144-85B1-3DCBA78B3B70}"/>
+    <hyperlink ref="E39" r:id="rId1" xr:uid="{EAA06F39-2792-4A7A-B1D6-75F762ABC41D}"/>
+    <hyperlink ref="E28" r:id="rId2" xr:uid="{CAC0A678-F393-44E3-9B6E-A3FDD2277086}"/>
+    <hyperlink ref="E11" r:id="rId3" xr:uid="{F59CDE25-099F-4144-85B1-3DCBA78B3B70}"/>
     <hyperlink ref="E3" r:id="rId4" xr:uid="{3B22740C-A97D-425B-B5AF-49B3896D33EE}"/>
     <hyperlink ref="E2" r:id="rId5" xr:uid="{9AD4BABB-D934-4171-A739-B2298F33063F}"/>
-    <hyperlink ref="E20" r:id="rId6" xr:uid="{344342D3-7511-4B9E-B249-4418AD0199BE}"/>
-    <hyperlink ref="E27" r:id="rId7" xr:uid="{4EF4F687-5DA0-4139-8ED8-796CFD048723}"/>
-    <hyperlink ref="E30" r:id="rId8" xr:uid="{37D7C35D-E37D-46D4-A772-8C5F56A639FB}"/>
-    <hyperlink ref="E63" r:id="rId9" xr:uid="{DD799009-88CA-47D1-A62F-A369A7611629}"/>
-    <hyperlink ref="E62" r:id="rId10" xr:uid="{47871777-D164-4285-88D9-4711D0F09B7A}"/>
-    <hyperlink ref="E61" r:id="rId11" xr:uid="{CD4F6830-69C8-4883-9D38-40F7904D38BC}"/>
-    <hyperlink ref="E53" r:id="rId12" xr:uid="{F287F050-BDBD-48DA-9C9F-974F06AA77BE}"/>
-    <hyperlink ref="E41" r:id="rId13" xr:uid="{46C95A92-BF48-4811-9105-E8D5B1561956}"/>
-    <hyperlink ref="E37" r:id="rId14" xr:uid="{F39BDEEC-98CD-4603-8BB0-C3A8A97480DF}"/>
-    <hyperlink ref="E36" r:id="rId15" xr:uid="{F4EFC9A1-C16B-4301-9043-301231F70123}"/>
-    <hyperlink ref="E42" r:id="rId16" xr:uid="{4CFC1F41-61FD-4074-855F-CF3EEE0D0FDE}"/>
-    <hyperlink ref="E51" r:id="rId17" xr:uid="{E74C0201-0319-40FB-A895-7E89AA462910}"/>
-    <hyperlink ref="E43" r:id="rId18" xr:uid="{1F51060D-CE80-4B4D-8BA3-277A92EE5ECB}"/>
-    <hyperlink ref="E44" r:id="rId19" xr:uid="{7FFDFD49-84C7-44D0-A42D-31A77AD96560}"/>
-    <hyperlink ref="E45" r:id="rId20" xr:uid="{25C2D0D0-29CE-44D1-92ED-0F0E9FDC6C3E}"/>
-    <hyperlink ref="E46" r:id="rId21" xr:uid="{B734E3CD-BAE2-41DD-B996-9058CD6AC298}"/>
-    <hyperlink ref="E47" r:id="rId22" xr:uid="{092C66D6-96F2-4CD7-AB26-5E0E2307F0CC}"/>
-    <hyperlink ref="E49" r:id="rId23" xr:uid="{3A8B895B-D350-4E71-843C-AA2F6E4308FA}"/>
-    <hyperlink ref="E52" r:id="rId24" xr:uid="{33FC1295-8080-4A43-970F-94C51D7E0D5C}"/>
-    <hyperlink ref="E50" r:id="rId25" xr:uid="{B0401EF0-1543-42B9-B581-1F0870C67BB1}"/>
-    <hyperlink ref="E40" r:id="rId26" xr:uid="{0C64FEE0-E696-4121-9E40-CDB19EA4F6DB}"/>
-    <hyperlink ref="E35" r:id="rId27" xr:uid="{53D67402-7738-4BDF-98B9-06D860D9BEAE}"/>
-    <hyperlink ref="E28" r:id="rId28" xr:uid="{1B5423F0-F04D-42F6-8909-FE8F05FD6139}"/>
-    <hyperlink ref="E48" r:id="rId29" xr:uid="{C17FC7E6-9650-47B0-ACBB-2F8314255584}"/>
-    <hyperlink ref="E38" r:id="rId30" xr:uid="{9BFC5734-BDBE-4EBF-8D4A-2F3CD3EE5837}"/>
-    <hyperlink ref="E24" r:id="rId31" xr:uid="{EFFC63C1-3263-4F38-BEF9-B44368779D7D}"/>
-    <hyperlink ref="E18" r:id="rId32" xr:uid="{4C0B3322-8974-41C4-B9BC-9DE774765E48}"/>
-    <hyperlink ref="E9" r:id="rId33" xr:uid="{C6090F8D-793A-4C1C-AFF0-60C9FEAA5436}"/>
-    <hyperlink ref="E23" r:id="rId34" xr:uid="{ACE44516-17AE-444F-B2CC-1E78A89B32A2}"/>
-    <hyperlink ref="E8" r:id="rId35" xr:uid="{C9527192-9DE3-4AA5-B13F-70034E74ADB5}"/>
-    <hyperlink ref="E31" r:id="rId36" xr:uid="{4D054C5B-6023-4E6B-8AA6-E5C79A87AA39}"/>
-    <hyperlink ref="E11" r:id="rId37" xr:uid="{0A58703F-D1E1-43E7-8F28-75AFF060DFF4}"/>
-    <hyperlink ref="E25" r:id="rId38" xr:uid="{85AF3A0C-7406-4B59-8193-F9C3F258640A}"/>
-    <hyperlink ref="E29" r:id="rId39" xr:uid="{015FB7DB-2517-4753-B06A-D6ABBDB36E96}"/>
-    <hyperlink ref="E6" r:id="rId40" xr:uid="{0FF20540-E8C7-46DE-95B1-B568CC1948D2}"/>
-    <hyperlink ref="E34" r:id="rId41" xr:uid="{C224013A-1493-4548-AF5F-4905C3B22431}"/>
-    <hyperlink ref="E15" r:id="rId42" xr:uid="{17FE1EB0-0172-49C3-86E9-A6D3177DC278}"/>
-    <hyperlink ref="E19" r:id="rId43" xr:uid="{DF4010D9-214B-4A7F-9526-F58FD6DA0F0F}"/>
-    <hyperlink ref="E5" r:id="rId44" xr:uid="{97BE137A-9291-4955-A9AB-7FF935D31A68}"/>
-    <hyperlink ref="E12" r:id="rId45" xr:uid="{A5548DC6-C4DB-4552-A96A-7596CD5F02ED}"/>
-    <hyperlink ref="E32" r:id="rId46" xr:uid="{5D837EE1-4E85-4FFC-86B9-C16A41C4A66C}"/>
-    <hyperlink ref="E14" r:id="rId47" xr:uid="{823C24EF-1DA9-44C2-81EE-E53E8AB0BEFC}"/>
-    <hyperlink ref="E17" r:id="rId48" xr:uid="{91761C8E-B635-4491-8C95-4E92CB3BA4FB}"/>
-    <hyperlink ref="E33" r:id="rId49" xr:uid="{76081988-14EC-453F-967D-0268C5DA7777}"/>
-    <hyperlink ref="E4" r:id="rId50" xr:uid="{9CE86829-0239-48FF-A3D3-A7E7BF54D49B}"/>
-    <hyperlink ref="E16" r:id="rId51" xr:uid="{F4959ACE-BAAD-4BBF-A3A3-74BCDAE0A5DB}"/>
-    <hyperlink ref="E22" r:id="rId52" xr:uid="{7ADB43B5-35FA-4D42-988A-B2D1294BA04B}"/>
-    <hyperlink ref="E13" r:id="rId53" xr:uid="{B71E3A4C-0BE4-418A-AD44-A3B9C80A8D4D}"/>
-    <hyperlink ref="E55" r:id="rId54" xr:uid="{3372A9D1-D915-4DA8-B562-4F013CBDFF76}"/>
-    <hyperlink ref="E56" r:id="rId55" xr:uid="{39149B7F-BBEE-4473-BF84-CFE54479256C}"/>
-    <hyperlink ref="E58" r:id="rId56" xr:uid="{DB6705BF-0FC9-4D4D-A073-C2F2B8EA2793}"/>
-    <hyperlink ref="E57" r:id="rId57" xr:uid="{38E211F4-5E12-4479-847B-6B28228032FD}"/>
-    <hyperlink ref="E54" r:id="rId58" xr:uid="{9CD2469D-1662-4D5A-8280-5F952192CF30}"/>
-    <hyperlink ref="E59" r:id="rId59" xr:uid="{070970E4-CFED-4A08-BDD0-670D25B8D207}"/>
-    <hyperlink ref="E39" r:id="rId60" xr:uid="{0076E308-B71E-45FD-BC55-48C21C5B96AF}"/>
-    <hyperlink ref="E60" r:id="rId61" xr:uid="{763A828E-7BC6-4D90-8EEF-4CD02DB7C3F0}"/>
-    <hyperlink ref="E10" r:id="rId62" xr:uid="{E211F1CB-64DC-42B2-82D4-109795429332}"/>
+    <hyperlink ref="E27" r:id="rId6" xr:uid="{344342D3-7511-4B9E-B249-4418AD0199BE}"/>
+    <hyperlink ref="E43" r:id="rId7" xr:uid="{4EF4F687-5DA0-4139-8ED8-796CFD048723}"/>
+    <hyperlink ref="E46" r:id="rId8" xr:uid="{37D7C35D-E37D-46D4-A772-8C5F56A639FB}"/>
+    <hyperlink ref="E88" r:id="rId9" xr:uid="{DD799009-88CA-47D1-A62F-A369A7611629}"/>
+    <hyperlink ref="E87" r:id="rId10" xr:uid="{47871777-D164-4285-88D9-4711D0F09B7A}"/>
+    <hyperlink ref="E86" r:id="rId11" xr:uid="{CD4F6830-69C8-4883-9D38-40F7904D38BC}"/>
+    <hyperlink ref="E78" r:id="rId12" xr:uid="{F287F050-BDBD-48DA-9C9F-974F06AA77BE}"/>
+    <hyperlink ref="E62" r:id="rId13" xr:uid="{46C95A92-BF48-4811-9105-E8D5B1561956}"/>
+    <hyperlink ref="E54" r:id="rId14" xr:uid="{F39BDEEC-98CD-4603-8BB0-C3A8A97480DF}"/>
+    <hyperlink ref="E53" r:id="rId15" xr:uid="{F4EFC9A1-C16B-4301-9043-301231F70123}"/>
+    <hyperlink ref="E63" r:id="rId16" xr:uid="{4CFC1F41-61FD-4074-855F-CF3EEE0D0FDE}"/>
+    <hyperlink ref="E76" r:id="rId17" xr:uid="{E74C0201-0319-40FB-A895-7E89AA462910}"/>
+    <hyperlink ref="E64" r:id="rId18" xr:uid="{1F51060D-CE80-4B4D-8BA3-277A92EE5ECB}"/>
+    <hyperlink ref="E65" r:id="rId19" xr:uid="{7FFDFD49-84C7-44D0-A42D-31A77AD96560}"/>
+    <hyperlink ref="E68" r:id="rId20" xr:uid="{25C2D0D0-29CE-44D1-92ED-0F0E9FDC6C3E}"/>
+    <hyperlink ref="E69" r:id="rId21" xr:uid="{B734E3CD-BAE2-41DD-B996-9058CD6AC298}"/>
+    <hyperlink ref="E70" r:id="rId22" xr:uid="{092C66D6-96F2-4CD7-AB26-5E0E2307F0CC}"/>
+    <hyperlink ref="E72" r:id="rId23" xr:uid="{3A8B895B-D350-4E71-843C-AA2F6E4308FA}"/>
+    <hyperlink ref="E77" r:id="rId24" xr:uid="{33FC1295-8080-4A43-970F-94C51D7E0D5C}"/>
+    <hyperlink ref="E75" r:id="rId25" xr:uid="{B0401EF0-1543-42B9-B581-1F0870C67BB1}"/>
+    <hyperlink ref="E61" r:id="rId26" xr:uid="{0C64FEE0-E696-4121-9E40-CDB19EA4F6DB}"/>
+    <hyperlink ref="E52" r:id="rId27" xr:uid="{53D67402-7738-4BDF-98B9-06D860D9BEAE}"/>
+    <hyperlink ref="E44" r:id="rId28" xr:uid="{1B5423F0-F04D-42F6-8909-FE8F05FD6139}"/>
+    <hyperlink ref="E71" r:id="rId29" xr:uid="{C17FC7E6-9650-47B0-ACBB-2F8314255584}"/>
+    <hyperlink ref="E56" r:id="rId30" xr:uid="{9BFC5734-BDBE-4EBF-8D4A-2F3CD3EE5837}"/>
+    <hyperlink ref="E37" r:id="rId31" xr:uid="{EFFC63C1-3263-4F38-BEF9-B44368779D7D}"/>
+    <hyperlink ref="E22" r:id="rId32" xr:uid="{4C0B3322-8974-41C4-B9BC-9DE774765E48}"/>
+    <hyperlink ref="E13" r:id="rId33" xr:uid="{C6090F8D-793A-4C1C-AFF0-60C9FEAA5436}"/>
+    <hyperlink ref="E32" r:id="rId34" xr:uid="{ACE44516-17AE-444F-B2CC-1E78A89B32A2}"/>
+    <hyperlink ref="E12" r:id="rId35" xr:uid="{C9527192-9DE3-4AA5-B13F-70034E74ADB5}"/>
+    <hyperlink ref="E47" r:id="rId36" xr:uid="{4D054C5B-6023-4E6B-8AA6-E5C79A87AA39}"/>
+    <hyperlink ref="E14" r:id="rId37" xr:uid="{0A58703F-D1E1-43E7-8F28-75AFF060DFF4}"/>
+    <hyperlink ref="E38" r:id="rId38" xr:uid="{85AF3A0C-7406-4B59-8193-F9C3F258640A}"/>
+    <hyperlink ref="E45" r:id="rId39" xr:uid="{015FB7DB-2517-4753-B06A-D6ABBDB36E96}"/>
+    <hyperlink ref="E8" r:id="rId40" xr:uid="{0FF20540-E8C7-46DE-95B1-B568CC1948D2}"/>
+    <hyperlink ref="E51" r:id="rId41" xr:uid="{C224013A-1493-4548-AF5F-4905C3B22431}"/>
+    <hyperlink ref="E20" r:id="rId42" xr:uid="{17FE1EB0-0172-49C3-86E9-A6D3177DC278}"/>
+    <hyperlink ref="E24" r:id="rId43" xr:uid="{DF4010D9-214B-4A7F-9526-F58FD6DA0F0F}"/>
+    <hyperlink ref="E6" r:id="rId44" xr:uid="{97BE137A-9291-4955-A9AB-7FF935D31A68}"/>
+    <hyperlink ref="E16" r:id="rId45" xr:uid="{A5548DC6-C4DB-4552-A96A-7596CD5F02ED}"/>
+    <hyperlink ref="E48" r:id="rId46" xr:uid="{5D837EE1-4E85-4FFC-86B9-C16A41C4A66C}"/>
+    <hyperlink ref="E19" r:id="rId47" xr:uid="{823C24EF-1DA9-44C2-81EE-E53E8AB0BEFC}"/>
+    <hyperlink ref="E41" r:id="rId48" xr:uid="{91761C8E-B635-4491-8C95-4E92CB3BA4FB}"/>
+    <hyperlink ref="E50" r:id="rId49" xr:uid="{76081988-14EC-453F-967D-0268C5DA7777}"/>
+    <hyperlink ref="E5" r:id="rId50" xr:uid="{9CE86829-0239-48FF-A3D3-A7E7BF54D49B}"/>
+    <hyperlink ref="E21" r:id="rId51" xr:uid="{F4959ACE-BAAD-4BBF-A3A3-74BCDAE0A5DB}"/>
+    <hyperlink ref="E30" r:id="rId52" xr:uid="{7ADB43B5-35FA-4D42-988A-B2D1294BA04B}"/>
+    <hyperlink ref="E17" r:id="rId53" xr:uid="{B71E3A4C-0BE4-418A-AD44-A3B9C80A8D4D}"/>
+    <hyperlink ref="E80" r:id="rId54" xr:uid="{3372A9D1-D915-4DA8-B562-4F013CBDFF76}"/>
+    <hyperlink ref="E81" r:id="rId55" xr:uid="{39149B7F-BBEE-4473-BF84-CFE54479256C}"/>
+    <hyperlink ref="E83" r:id="rId56" xr:uid="{DB6705BF-0FC9-4D4D-A073-C2F2B8EA2793}"/>
+    <hyperlink ref="E82" r:id="rId57" xr:uid="{38E211F4-5E12-4479-847B-6B28228032FD}"/>
+    <hyperlink ref="E79" r:id="rId58" xr:uid="{9CD2469D-1662-4D5A-8280-5F952192CF30}"/>
+    <hyperlink ref="E84" r:id="rId59" xr:uid="{070970E4-CFED-4A08-BDD0-670D25B8D207}"/>
+    <hyperlink ref="E60" r:id="rId60" xr:uid="{0076E308-B71E-45FD-BC55-48C21C5B96AF}"/>
+    <hyperlink ref="E85" r:id="rId61" xr:uid="{763A828E-7BC6-4D90-8EEF-4CD02DB7C3F0}"/>
+    <hyperlink ref="E40" r:id="rId62" xr:uid="{E211F1CB-64DC-42B2-82D4-109795429332}"/>
+    <hyperlink ref="E36" r:id="rId63" xr:uid="{3C45DE30-C557-4859-9A22-F0EE92A94F50}"/>
+    <hyperlink ref="E74" r:id="rId64" xr:uid="{32DCA834-2A5E-4BA5-B172-8B41E716962E}"/>
+    <hyperlink ref="E66" r:id="rId65" xr:uid="{56AC298B-168D-4D78-AF50-6194DBC8ED0F}"/>
+    <hyperlink ref="E67" r:id="rId66" xr:uid="{A7949532-A8E6-4BFA-B244-C9F15CF64209}"/>
+    <hyperlink ref="E10" r:id="rId67" xr:uid="{F7C48F25-092D-4D0C-9A81-AC06044877A5}"/>
+    <hyperlink ref="E55" r:id="rId68" xr:uid="{83B1CDC4-0B45-4DB8-AE85-EF172098481E}"/>
+    <hyperlink ref="E57" r:id="rId69" xr:uid="{8867D8EC-D14E-4966-8966-840905B28B60}"/>
+    <hyperlink ref="E59" r:id="rId70" xr:uid="{03273EBF-9D6C-4B3A-B0CF-E3F275300784}"/>
+    <hyperlink ref="E58" r:id="rId71" xr:uid="{69432D99-C01E-4209-ACF7-A280CE361488}"/>
+    <hyperlink ref="E42" r:id="rId72" xr:uid="{9A81B9F8-2206-440A-8F02-94A6D682B8AD}"/>
+    <hyperlink ref="E73" r:id="rId73" xr:uid="{E1E70935-49E6-4C4C-BAF0-008E8ABB41A3}"/>
+    <hyperlink ref="E18" r:id="rId74" xr:uid="{F53B7D93-AD80-48B7-BF64-C172BBCED456}"/>
+    <hyperlink ref="E25" r:id="rId75" xr:uid="{A03A4C49-02B7-4A3F-AB77-0D70B233DC7D}"/>
+    <hyperlink ref="E26" r:id="rId76" xr:uid="{58C0BC32-85D5-4FC4-A35D-980070F963D3}"/>
+    <hyperlink ref="E35" r:id="rId77" xr:uid="{35874A2A-533E-4EE8-91CD-37332500D082}"/>
+    <hyperlink ref="E4" r:id="rId78" xr:uid="{ECE5C020-1789-4EA2-B1BA-0F2B89204794}"/>
+    <hyperlink ref="E7" r:id="rId79" xr:uid="{59519D6A-97B5-4D3C-A940-9CD226B6F6FC}"/>
+    <hyperlink ref="E49" r:id="rId80" xr:uid="{D4963B2A-CADD-4712-92B1-F2B75738437E}"/>
+    <hyperlink ref="E9" r:id="rId81" xr:uid="{7C21201A-7A38-483C-A584-28A89AA2D33C}"/>
+    <hyperlink ref="E15" r:id="rId82" xr:uid="{71F43CB7-910D-4F51-BC93-84940F0F6035}"/>
+    <hyperlink ref="E23" r:id="rId83" xr:uid="{07C8B71A-A968-4C80-9695-B23E1820982A}"/>
+    <hyperlink ref="E29" r:id="rId84" xr:uid="{A44A0234-D366-4F57-B362-977B9D0BB312}"/>
+    <hyperlink ref="E31" r:id="rId85" xr:uid="{68F7BF1F-4C6D-4B96-B966-67E856A2CE04}"/>
+    <hyperlink ref="E33" r:id="rId86" xr:uid="{C62C5C31-2463-446A-9E16-71FEFA26F368}"/>
+    <hyperlink ref="E34" r:id="rId87" xr:uid="{3880EABE-2C99-4DEE-BD6E-614133BBD597}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId63"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId88"/>
 </worksheet>
 </file>
 

--- a/AstroLinks.xlsx
+++ b/AstroLinks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\albusmw.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04FCE8A-F50A-4E5C-B80C-7E25E0CAD248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF79C0E-DF29-40A3-9EB2-F3B86B3FC678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6210" yWindow="5685" windowWidth="40695" windowHeight="26235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5175" yWindow="0" windowWidth="28515" windowHeight="23400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Astro link list" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="296">
   <si>
     <t>Manufacturers</t>
   </si>
@@ -782,6 +782,138 @@
   </si>
   <si>
     <t>The Imaging Source</t>
+  </si>
+  <si>
+    <t>Optec</t>
+  </si>
+  <si>
+    <t>https://www.optecinc.com/</t>
+  </si>
+  <si>
+    <t>Focuser, flat fields, …</t>
+  </si>
+  <si>
+    <t>Askar</t>
+  </si>
+  <si>
+    <t>http://www.askarlens.com</t>
+  </si>
+  <si>
+    <t>Telescopes (including camera lenses)</t>
+  </si>
+  <si>
+    <t>http://www.astrosurf.com</t>
+  </si>
+  <si>
+    <t>Astrosurf</t>
+  </si>
+  <si>
+    <t>French forums</t>
+  </si>
+  <si>
+    <t>Articles to read</t>
+  </si>
+  <si>
+    <t>http://www.astrosurf.com/solex/sol-ex-presentation-en.html</t>
+  </si>
+  <si>
+    <t>Sun imaging and image processing</t>
+  </si>
+  <si>
+    <t>Solex</t>
+  </si>
+  <si>
+    <t>http://www.skypixels.at/downloads/ade/Tone_Mapping.pdf</t>
+  </si>
+  <si>
+    <t>https://astroanarchy.blogspot.com</t>
+  </si>
+  <si>
+    <t>AstroAnarchy</t>
+  </si>
+  <si>
+    <t>Website of J-P METSAVAINIO</t>
+  </si>
+  <si>
+    <t>Tone Mapping</t>
+  </si>
+  <si>
+    <t>Image processing technique by J-P Matsavainio</t>
+  </si>
+  <si>
+    <t>APP, und evtl auch Wetter und Himmel, also Clear Outside, Astronomical Seeing, Kachelmann. Was man hin und wieder brauchen kann ist Blackwater Skies und Planetary Nebulae. Die Links kann i dir alle schicken wenns wär</t>
+  </si>
+  <si>
+    <t>Star and distortion removal</t>
+  </si>
+  <si>
+    <t>GradientXTerminator</t>
+  </si>
+  <si>
+    <t>StarXTerminator</t>
+  </si>
+  <si>
+    <t>Private homepages</t>
+  </si>
+  <si>
+    <t>https://www.rc-astro.com/index.php</t>
+  </si>
+  <si>
+    <t>Russell Croman</t>
+  </si>
+  <si>
+    <t>https://zipproth.de/Straton</t>
+  </si>
+  <si>
+    <t>https://www.rc-astro.com/resources/StarXTerminator</t>
+  </si>
+  <si>
+    <t>https://www.rc-astro.com/resources/GradientXTerminator</t>
+  </si>
+  <si>
+    <t>Straton</t>
+  </si>
+  <si>
+    <t>Stand-alone star removal software</t>
+  </si>
+  <si>
+    <t>Adobe Photoshop Plug-in</t>
+  </si>
+  <si>
+    <t>Starnet++</t>
+  </si>
+  <si>
+    <t>https://sourceforge.net/projects/starnet</t>
+  </si>
+  <si>
+    <t>Observation planing</t>
+  </si>
+  <si>
+    <t>GRAZPREP</t>
+  </si>
+  <si>
+    <t>http://www.grazprep.com</t>
+  </si>
+  <si>
+    <t>IOTA/ES</t>
+  </si>
+  <si>
+    <t>https://www.iota-es.de</t>
+  </si>
+  <si>
+    <t>International Occultation Timing Association / European Section</t>
+  </si>
+  <si>
+    <t>Occultation planing</t>
+  </si>
+  <si>
+    <t>https://stargazerslounge.com</t>
+  </si>
+  <si>
+    <t>Stargazers Lounge</t>
+  </si>
+  <si>
+    <t>Discussion forum</t>
   </si>
 </sst>
 </file>
@@ -1122,18 +1254,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E88"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="78" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1219,1139 +1351,1330 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="C7" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="D7" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="C8" t="s">
-        <v>118</v>
+        <v>233</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>234</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>119</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="C9" t="s">
-        <v>238</v>
+        <v>118</v>
       </c>
       <c r="D9" t="s">
-        <v>234</v>
+        <v>17</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>239</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="C10" t="s">
-        <v>195</v>
+        <v>238</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>234</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>194</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="C11" t="s">
-        <v>3</v>
+        <v>195</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>19</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="C12" t="s">
-        <v>108</v>
+        <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D13" t="s">
         <v>99</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="C14" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="C15" t="s">
-        <v>240</v>
+        <v>112</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>241</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="C16" t="s">
-        <v>128</v>
+        <v>240</v>
       </c>
       <c r="D16" t="s">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>129</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="C17" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="D17" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="C18" t="s">
-        <v>217</v>
+        <v>149</v>
       </c>
       <c r="D18" t="s">
-        <v>224</v>
+        <v>150</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>216</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="C19" t="s">
-        <v>131</v>
+        <v>217</v>
       </c>
       <c r="D19" t="s">
-        <v>136</v>
+        <v>224</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>135</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="C20" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D20" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="C21" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="D21" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="C22" t="s">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="D22" t="s">
-        <v>228</v>
+        <v>145</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="C23" t="s">
-        <v>243</v>
+        <v>101</v>
       </c>
       <c r="D23" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>242</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="C24" t="s">
-        <v>125</v>
+        <v>243</v>
       </c>
       <c r="D24" t="s">
-        <v>99</v>
+        <v>234</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>124</v>
+        <v>242</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="C25" t="s">
-        <v>219</v>
+        <v>125</v>
       </c>
       <c r="D25" t="s">
-        <v>220</v>
+        <v>99</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>218</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="C26" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D26" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>252</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>254</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>22</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="C28" t="s">
-        <v>2</v>
+        <v>221</v>
       </c>
       <c r="D28" t="s">
-        <v>14</v>
+        <v>223</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>18</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="C29" t="s">
-        <v>244</v>
+        <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>245</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="C30" t="s">
-        <v>147</v>
+        <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>146</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="C31" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D31" t="s">
-        <v>234</v>
+        <v>14</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="C32" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
+        <v>130</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>107</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="C33" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D33" t="s">
-        <v>14</v>
+        <v>234</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="C34" t="s">
-        <v>251</v>
+        <v>106</v>
       </c>
       <c r="D34" t="s">
-        <v>234</v>
+        <v>17</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>250</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="C35" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="D35" t="s">
-        <v>227</v>
+        <v>14</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="C36" t="s">
-        <v>183</v>
+        <v>251</v>
       </c>
       <c r="D36" t="s">
-        <v>184</v>
+        <v>234</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>185</v>
+        <v>250</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="C37" t="s">
-        <v>98</v>
+        <v>226</v>
       </c>
       <c r="D37" t="s">
-        <v>99</v>
+        <v>227</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>100</v>
+        <v>225</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="C38" t="s">
-        <v>114</v>
+        <v>183</v>
       </c>
       <c r="D38" t="s">
-        <v>99</v>
+        <v>184</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>113</v>
+        <v>185</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="C39" t="s">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="D39" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>13</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
-      <c r="B40" t="s">
-        <v>211</v>
-      </c>
       <c r="C40" t="s">
-        <v>180</v>
+        <v>114</v>
       </c>
       <c r="D40" t="s">
-        <v>182</v>
+        <v>99</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>181</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="C41" t="s">
-        <v>137</v>
+        <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>138</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
+      <c r="B42" t="s">
+        <v>211</v>
+      </c>
       <c r="C42" t="s">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="D42" t="s">
         <v>182</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" t="s">
-        <v>83</v>
-      </c>
+      <c r="A43" s="3"/>
       <c r="C43" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="D43" t="s">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>23</v>
+        <v>138</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="C44" t="s">
-        <v>86</v>
+        <v>210</v>
       </c>
       <c r="D44" t="s">
-        <v>78</v>
+        <v>182</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>77</v>
+        <v>209</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
+      <c r="A45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" t="s">
+        <v>83</v>
+      </c>
       <c r="C45" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="D45" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="C46" t="s">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="D46" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="C47" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D47" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="C48" t="s">
-        <v>133</v>
+        <v>3</v>
       </c>
       <c r="D48" t="s">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>132</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="C49" t="s">
-        <v>236</v>
+        <v>108</v>
       </c>
       <c r="D49" t="s">
-        <v>237</v>
+        <v>110</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>235</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="C50" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D50" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
-      <c r="B51" t="s">
-        <v>120</v>
-      </c>
       <c r="C51" t="s">
-        <v>121</v>
+        <v>236</v>
       </c>
       <c r="D51" t="s">
-        <v>110</v>
+        <v>237</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>122</v>
+        <v>235</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
-      <c r="B52" t="s">
-        <v>84</v>
-      </c>
       <c r="C52" t="s">
-        <v>87</v>
+        <v>141</v>
       </c>
       <c r="D52" t="s">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>74</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="A53" s="3"/>
       <c r="B53" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="C53" t="s">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="D53" t="s">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>41</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
+      <c r="B54" t="s">
+        <v>84</v>
+      </c>
       <c r="C54" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="D54" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
+      <c r="A55" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B55" t="s">
+        <v>199</v>
+      </c>
       <c r="C55" t="s">
-        <v>197</v>
+        <v>24</v>
       </c>
       <c r="D55" t="s">
-        <v>198</v>
+        <v>30</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>196</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
-      <c r="B56" t="s">
-        <v>200</v>
-      </c>
       <c r="C56" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D56" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>96</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
-      <c r="B57" t="s">
-        <v>202</v>
-      </c>
       <c r="C57" t="s">
-        <v>204</v>
+        <v>197</v>
+      </c>
+      <c r="D57" t="s">
+        <v>198</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
+      <c r="B58" t="s">
+        <v>200</v>
+      </c>
       <c r="C58" t="s">
-        <v>207</v>
+        <v>95</v>
+      </c>
+      <c r="D58" t="s">
+        <v>97</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>208</v>
+        <v>96</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="C59" t="s">
-        <v>206</v>
+        <v>289</v>
+      </c>
+      <c r="D59" t="s">
+        <v>291</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>205</v>
+        <v>290</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C60" t="s">
-        <v>175</v>
-      </c>
-      <c r="D60" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>70</v>
-      </c>
+      <c r="A61" s="3"/>
       <c r="C61" t="s">
-        <v>72</v>
-      </c>
-      <c r="D61" t="s">
-        <v>73</v>
+        <v>207</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>71</v>
+        <v>208</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B62" t="s">
-        <v>88</v>
-      </c>
+      <c r="A62" s="3"/>
       <c r="C62" t="s">
-        <v>26</v>
-      </c>
-      <c r="D62" t="s">
-        <v>32</v>
+        <v>206</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>39</v>
+        <v>205</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
+      <c r="B63" t="s">
+        <v>286</v>
+      </c>
       <c r="C63" t="s">
-        <v>43</v>
+        <v>287</v>
       </c>
       <c r="D63" t="s">
-        <v>46</v>
+        <v>292</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>50</v>
+        <v>288</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
+      <c r="B64" t="s">
+        <v>201</v>
+      </c>
       <c r="C64" t="s">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="D64" t="s">
-        <v>51</v>
+        <v>176</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>48</v>
+        <v>174</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="3"/>
+      <c r="A65" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="C65" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="D65" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="3"/>
+      <c r="A66" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B66" t="s">
+        <v>88</v>
+      </c>
       <c r="C66" t="s">
-        <v>189</v>
+        <v>26</v>
       </c>
       <c r="D66" t="s">
-        <v>190</v>
+        <v>32</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>188</v>
+        <v>39</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="C67" t="s">
-        <v>192</v>
+        <v>43</v>
       </c>
       <c r="D67" t="s">
-        <v>193</v>
+        <v>46</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>191</v>
+        <v>50</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="C68" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D68" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="C69" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D69" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
-      <c r="B70" t="s">
-        <v>89</v>
-      </c>
       <c r="C70" t="s">
-        <v>60</v>
+        <v>189</v>
       </c>
       <c r="D70" t="s">
-        <v>58</v>
+        <v>190</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>61</v>
+        <v>188</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="C71" t="s">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="D71" t="s">
-        <v>58</v>
+        <v>193</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>81</v>
+        <v>191</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="C72" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D72" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="C73" t="s">
-        <v>212</v>
+        <v>57</v>
       </c>
       <c r="D73" t="s">
-        <v>214</v>
+        <v>58</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>213</v>
+        <v>59</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
+      <c r="B74" t="s">
+        <v>89</v>
+      </c>
       <c r="C74" t="s">
-        <v>186</v>
+        <v>60</v>
       </c>
       <c r="D74" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>187</v>
+        <v>61</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
-      <c r="B75" t="s">
-        <v>91</v>
-      </c>
       <c r="C75" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D75" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
-      <c r="B76" t="s">
-        <v>90</v>
-      </c>
       <c r="C76" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="D76" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="C77" t="s">
-        <v>63</v>
+        <v>212</v>
       </c>
       <c r="D77" t="s">
-        <v>66</v>
+        <v>214</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>64</v>
+        <v>213</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="C78" t="s">
-        <v>27</v>
+        <v>186</v>
       </c>
       <c r="D78" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>38</v>
+        <v>187</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
+      <c r="B79" t="s">
+        <v>272</v>
+      </c>
       <c r="C79" t="s">
-        <v>167</v>
+        <v>273</v>
       </c>
       <c r="D79" t="s">
-        <v>169</v>
+        <v>283</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>168</v>
+        <v>280</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B80" t="s">
-        <v>154</v>
-      </c>
+      <c r="A80" s="3"/>
       <c r="C80" t="s">
-        <v>156</v>
+        <v>274</v>
       </c>
       <c r="D80" t="s">
-        <v>166</v>
+        <v>283</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>155</v>
+        <v>279</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="C81" t="s">
-        <v>157</v>
-      </c>
-      <c r="D81" t="s">
-        <v>164</v>
+        <v>284</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>158</v>
+        <v>285</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="C82" t="s">
-        <v>162</v>
+        <v>281</v>
       </c>
       <c r="D82" t="s">
-        <v>165</v>
+        <v>282</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>163</v>
+        <v>278</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" t="s">
-        <v>159</v>
+        <v>91</v>
       </c>
       <c r="C83" t="s">
-        <v>161</v>
+        <v>67</v>
       </c>
       <c r="D83" t="s">
-        <v>215</v>
+        <v>69</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>160</v>
+        <v>68</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
+      <c r="B84" t="s">
+        <v>90</v>
+      </c>
       <c r="C84" t="s">
-        <v>171</v>
+        <v>44</v>
       </c>
       <c r="D84" t="s">
-        <v>172</v>
+        <v>45</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>170</v>
+        <v>49</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="C85" t="s">
+        <v>63</v>
+      </c>
+      <c r="D85" t="s">
+        <v>66</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="3"/>
+      <c r="C86" t="s">
+        <v>27</v>
+      </c>
+      <c r="D86" t="s">
+        <v>33</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="3"/>
+      <c r="C87" t="s">
+        <v>167</v>
+      </c>
+      <c r="D87" t="s">
+        <v>169</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B88" t="s">
+        <v>154</v>
+      </c>
+      <c r="C88" t="s">
+        <v>156</v>
+      </c>
+      <c r="D88" t="s">
+        <v>166</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="3"/>
+      <c r="C89" t="s">
+        <v>157</v>
+      </c>
+      <c r="D89" t="s">
+        <v>164</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="3"/>
+      <c r="C90" t="s">
+        <v>162</v>
+      </c>
+      <c r="D90" t="s">
+        <v>165</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="3"/>
+      <c r="B91" t="s">
+        <v>159</v>
+      </c>
+      <c r="C91" t="s">
+        <v>161</v>
+      </c>
+      <c r="D91" t="s">
+        <v>215</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="3"/>
+      <c r="C92" t="s">
+        <v>171</v>
+      </c>
+      <c r="D92" t="s">
+        <v>172</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="3"/>
+      <c r="C93" t="s">
         <v>178</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D93" t="s">
         <v>179</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="E93" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="3"/>
+      <c r="B94" t="s">
+        <v>275</v>
+      </c>
+      <c r="C94" t="s">
+        <v>277</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
         <v>151</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C95" t="s">
         <v>92</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D95" t="s">
         <v>173</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="E95" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C87" t="s">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C96" t="s">
         <v>93</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D96" t="s">
         <v>173</v>
       </c>
-      <c r="E87" s="2" t="s">
+      <c r="E96" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>260</v>
+      </c>
+      <c r="C97" t="s">
+        <v>259</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
         <v>152</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C98" t="s">
         <v>94</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D98" t="s">
         <v>34</v>
       </c>
-      <c r="E88" s="2" t="s">
+      <c r="E98" s="2" t="s">
         <v>35</v>
       </c>
     </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C99" t="s">
+        <v>294</v>
+      </c>
+      <c r="D99" t="s">
+        <v>295</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C100" t="s">
+        <v>264</v>
+      </c>
+      <c r="D100" t="s">
+        <v>263</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C101" t="s">
+        <v>269</v>
+      </c>
+      <c r="D101" t="s">
+        <v>270</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C102" t="s">
+        <v>267</v>
+      </c>
+      <c r="D102" t="s">
+        <v>268</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:E39">
-    <sortCondition ref="C2:C39"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:E41">
+    <sortCondition ref="C2:C41"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="E39" r:id="rId1" xr:uid="{EAA06F39-2792-4A7A-B1D6-75F762ABC41D}"/>
-    <hyperlink ref="E28" r:id="rId2" xr:uid="{CAC0A678-F393-44E3-9B6E-A3FDD2277086}"/>
-    <hyperlink ref="E11" r:id="rId3" xr:uid="{F59CDE25-099F-4144-85B1-3DCBA78B3B70}"/>
+    <hyperlink ref="E41" r:id="rId1" xr:uid="{EAA06F39-2792-4A7A-B1D6-75F762ABC41D}"/>
+    <hyperlink ref="E30" r:id="rId2" xr:uid="{CAC0A678-F393-44E3-9B6E-A3FDD2277086}"/>
+    <hyperlink ref="E12" r:id="rId3" xr:uid="{F59CDE25-099F-4144-85B1-3DCBA78B3B70}"/>
     <hyperlink ref="E3" r:id="rId4" xr:uid="{3B22740C-A97D-425B-B5AF-49B3896D33EE}"/>
     <hyperlink ref="E2" r:id="rId5" xr:uid="{9AD4BABB-D934-4171-A739-B2298F33063F}"/>
-    <hyperlink ref="E27" r:id="rId6" xr:uid="{344342D3-7511-4B9E-B249-4418AD0199BE}"/>
-    <hyperlink ref="E43" r:id="rId7" xr:uid="{4EF4F687-5DA0-4139-8ED8-796CFD048723}"/>
-    <hyperlink ref="E46" r:id="rId8" xr:uid="{37D7C35D-E37D-46D4-A772-8C5F56A639FB}"/>
-    <hyperlink ref="E88" r:id="rId9" xr:uid="{DD799009-88CA-47D1-A62F-A369A7611629}"/>
-    <hyperlink ref="E87" r:id="rId10" xr:uid="{47871777-D164-4285-88D9-4711D0F09B7A}"/>
-    <hyperlink ref="E86" r:id="rId11" xr:uid="{CD4F6830-69C8-4883-9D38-40F7904D38BC}"/>
-    <hyperlink ref="E78" r:id="rId12" xr:uid="{F287F050-BDBD-48DA-9C9F-974F06AA77BE}"/>
-    <hyperlink ref="E62" r:id="rId13" xr:uid="{46C95A92-BF48-4811-9105-E8D5B1561956}"/>
-    <hyperlink ref="E54" r:id="rId14" xr:uid="{F39BDEEC-98CD-4603-8BB0-C3A8A97480DF}"/>
-    <hyperlink ref="E53" r:id="rId15" xr:uid="{F4EFC9A1-C16B-4301-9043-301231F70123}"/>
-    <hyperlink ref="E63" r:id="rId16" xr:uid="{4CFC1F41-61FD-4074-855F-CF3EEE0D0FDE}"/>
-    <hyperlink ref="E76" r:id="rId17" xr:uid="{E74C0201-0319-40FB-A895-7E89AA462910}"/>
-    <hyperlink ref="E64" r:id="rId18" xr:uid="{1F51060D-CE80-4B4D-8BA3-277A92EE5ECB}"/>
-    <hyperlink ref="E65" r:id="rId19" xr:uid="{7FFDFD49-84C7-44D0-A42D-31A77AD96560}"/>
-    <hyperlink ref="E68" r:id="rId20" xr:uid="{25C2D0D0-29CE-44D1-92ED-0F0E9FDC6C3E}"/>
-    <hyperlink ref="E69" r:id="rId21" xr:uid="{B734E3CD-BAE2-41DD-B996-9058CD6AC298}"/>
-    <hyperlink ref="E70" r:id="rId22" xr:uid="{092C66D6-96F2-4CD7-AB26-5E0E2307F0CC}"/>
-    <hyperlink ref="E72" r:id="rId23" xr:uid="{3A8B895B-D350-4E71-843C-AA2F6E4308FA}"/>
-    <hyperlink ref="E77" r:id="rId24" xr:uid="{33FC1295-8080-4A43-970F-94C51D7E0D5C}"/>
-    <hyperlink ref="E75" r:id="rId25" xr:uid="{B0401EF0-1543-42B9-B581-1F0870C67BB1}"/>
-    <hyperlink ref="E61" r:id="rId26" xr:uid="{0C64FEE0-E696-4121-9E40-CDB19EA4F6DB}"/>
-    <hyperlink ref="E52" r:id="rId27" xr:uid="{53D67402-7738-4BDF-98B9-06D860D9BEAE}"/>
-    <hyperlink ref="E44" r:id="rId28" xr:uid="{1B5423F0-F04D-42F6-8909-FE8F05FD6139}"/>
-    <hyperlink ref="E71" r:id="rId29" xr:uid="{C17FC7E6-9650-47B0-ACBB-2F8314255584}"/>
-    <hyperlink ref="E56" r:id="rId30" xr:uid="{9BFC5734-BDBE-4EBF-8D4A-2F3CD3EE5837}"/>
-    <hyperlink ref="E37" r:id="rId31" xr:uid="{EFFC63C1-3263-4F38-BEF9-B44368779D7D}"/>
-    <hyperlink ref="E22" r:id="rId32" xr:uid="{4C0B3322-8974-41C4-B9BC-9DE774765E48}"/>
-    <hyperlink ref="E13" r:id="rId33" xr:uid="{C6090F8D-793A-4C1C-AFF0-60C9FEAA5436}"/>
-    <hyperlink ref="E32" r:id="rId34" xr:uid="{ACE44516-17AE-444F-B2CC-1E78A89B32A2}"/>
-    <hyperlink ref="E12" r:id="rId35" xr:uid="{C9527192-9DE3-4AA5-B13F-70034E74ADB5}"/>
-    <hyperlink ref="E47" r:id="rId36" xr:uid="{4D054C5B-6023-4E6B-8AA6-E5C79A87AA39}"/>
-    <hyperlink ref="E14" r:id="rId37" xr:uid="{0A58703F-D1E1-43E7-8F28-75AFF060DFF4}"/>
-    <hyperlink ref="E38" r:id="rId38" xr:uid="{85AF3A0C-7406-4B59-8193-F9C3F258640A}"/>
-    <hyperlink ref="E45" r:id="rId39" xr:uid="{015FB7DB-2517-4753-B06A-D6ABBDB36E96}"/>
-    <hyperlink ref="E8" r:id="rId40" xr:uid="{0FF20540-E8C7-46DE-95B1-B568CC1948D2}"/>
-    <hyperlink ref="E51" r:id="rId41" xr:uid="{C224013A-1493-4548-AF5F-4905C3B22431}"/>
-    <hyperlink ref="E20" r:id="rId42" xr:uid="{17FE1EB0-0172-49C3-86E9-A6D3177DC278}"/>
-    <hyperlink ref="E24" r:id="rId43" xr:uid="{DF4010D9-214B-4A7F-9526-F58FD6DA0F0F}"/>
+    <hyperlink ref="E29" r:id="rId6" xr:uid="{344342D3-7511-4B9E-B249-4418AD0199BE}"/>
+    <hyperlink ref="E45" r:id="rId7" xr:uid="{4EF4F687-5DA0-4139-8ED8-796CFD048723}"/>
+    <hyperlink ref="E48" r:id="rId8" xr:uid="{37D7C35D-E37D-46D4-A772-8C5F56A639FB}"/>
+    <hyperlink ref="E98" r:id="rId9" xr:uid="{DD799009-88CA-47D1-A62F-A369A7611629}"/>
+    <hyperlink ref="E96" r:id="rId10" xr:uid="{47871777-D164-4285-88D9-4711D0F09B7A}"/>
+    <hyperlink ref="E95" r:id="rId11" xr:uid="{CD4F6830-69C8-4883-9D38-40F7904D38BC}"/>
+    <hyperlink ref="E86" r:id="rId12" xr:uid="{F287F050-BDBD-48DA-9C9F-974F06AA77BE}"/>
+    <hyperlink ref="E66" r:id="rId13" xr:uid="{46C95A92-BF48-4811-9105-E8D5B1561956}"/>
+    <hyperlink ref="E56" r:id="rId14" xr:uid="{F39BDEEC-98CD-4603-8BB0-C3A8A97480DF}"/>
+    <hyperlink ref="E55" r:id="rId15" xr:uid="{F4EFC9A1-C16B-4301-9043-301231F70123}"/>
+    <hyperlink ref="E67" r:id="rId16" xr:uid="{4CFC1F41-61FD-4074-855F-CF3EEE0D0FDE}"/>
+    <hyperlink ref="E84" r:id="rId17" xr:uid="{E74C0201-0319-40FB-A895-7E89AA462910}"/>
+    <hyperlink ref="E68" r:id="rId18" xr:uid="{1F51060D-CE80-4B4D-8BA3-277A92EE5ECB}"/>
+    <hyperlink ref="E69" r:id="rId19" xr:uid="{7FFDFD49-84C7-44D0-A42D-31A77AD96560}"/>
+    <hyperlink ref="E72" r:id="rId20" xr:uid="{25C2D0D0-29CE-44D1-92ED-0F0E9FDC6C3E}"/>
+    <hyperlink ref="E73" r:id="rId21" xr:uid="{B734E3CD-BAE2-41DD-B996-9058CD6AC298}"/>
+    <hyperlink ref="E74" r:id="rId22" xr:uid="{092C66D6-96F2-4CD7-AB26-5E0E2307F0CC}"/>
+    <hyperlink ref="E76" r:id="rId23" xr:uid="{3A8B895B-D350-4E71-843C-AA2F6E4308FA}"/>
+    <hyperlink ref="E85" r:id="rId24" xr:uid="{33FC1295-8080-4A43-970F-94C51D7E0D5C}"/>
+    <hyperlink ref="E83" r:id="rId25" xr:uid="{B0401EF0-1543-42B9-B581-1F0870C67BB1}"/>
+    <hyperlink ref="E65" r:id="rId26" xr:uid="{0C64FEE0-E696-4121-9E40-CDB19EA4F6DB}"/>
+    <hyperlink ref="E54" r:id="rId27" xr:uid="{53D67402-7738-4BDF-98B9-06D860D9BEAE}"/>
+    <hyperlink ref="E46" r:id="rId28" xr:uid="{1B5423F0-F04D-42F6-8909-FE8F05FD6139}"/>
+    <hyperlink ref="E75" r:id="rId29" xr:uid="{C17FC7E6-9650-47B0-ACBB-2F8314255584}"/>
+    <hyperlink ref="E58" r:id="rId30" xr:uid="{9BFC5734-BDBE-4EBF-8D4A-2F3CD3EE5837}"/>
+    <hyperlink ref="E39" r:id="rId31" xr:uid="{EFFC63C1-3263-4F38-BEF9-B44368779D7D}"/>
+    <hyperlink ref="E23" r:id="rId32" xr:uid="{4C0B3322-8974-41C4-B9BC-9DE774765E48}"/>
+    <hyperlink ref="E14" r:id="rId33" xr:uid="{C6090F8D-793A-4C1C-AFF0-60C9FEAA5436}"/>
+    <hyperlink ref="E34" r:id="rId34" xr:uid="{ACE44516-17AE-444F-B2CC-1E78A89B32A2}"/>
+    <hyperlink ref="E13" r:id="rId35" xr:uid="{C9527192-9DE3-4AA5-B13F-70034E74ADB5}"/>
+    <hyperlink ref="E49" r:id="rId36" xr:uid="{4D054C5B-6023-4E6B-8AA6-E5C79A87AA39}"/>
+    <hyperlink ref="E15" r:id="rId37" xr:uid="{0A58703F-D1E1-43E7-8F28-75AFF060DFF4}"/>
+    <hyperlink ref="E40" r:id="rId38" xr:uid="{85AF3A0C-7406-4B59-8193-F9C3F258640A}"/>
+    <hyperlink ref="E47" r:id="rId39" xr:uid="{015FB7DB-2517-4753-B06A-D6ABBDB36E96}"/>
+    <hyperlink ref="E9" r:id="rId40" xr:uid="{0FF20540-E8C7-46DE-95B1-B568CC1948D2}"/>
+    <hyperlink ref="E53" r:id="rId41" xr:uid="{C224013A-1493-4548-AF5F-4905C3B22431}"/>
+    <hyperlink ref="E21" r:id="rId42" xr:uid="{17FE1EB0-0172-49C3-86E9-A6D3177DC278}"/>
+    <hyperlink ref="E25" r:id="rId43" xr:uid="{DF4010D9-214B-4A7F-9526-F58FD6DA0F0F}"/>
     <hyperlink ref="E6" r:id="rId44" xr:uid="{97BE137A-9291-4955-A9AB-7FF935D31A68}"/>
-    <hyperlink ref="E16" r:id="rId45" xr:uid="{A5548DC6-C4DB-4552-A96A-7596CD5F02ED}"/>
-    <hyperlink ref="E48" r:id="rId46" xr:uid="{5D837EE1-4E85-4FFC-86B9-C16A41C4A66C}"/>
-    <hyperlink ref="E19" r:id="rId47" xr:uid="{823C24EF-1DA9-44C2-81EE-E53E8AB0BEFC}"/>
-    <hyperlink ref="E41" r:id="rId48" xr:uid="{91761C8E-B635-4491-8C95-4E92CB3BA4FB}"/>
-    <hyperlink ref="E50" r:id="rId49" xr:uid="{76081988-14EC-453F-967D-0268C5DA7777}"/>
+    <hyperlink ref="E17" r:id="rId45" xr:uid="{A5548DC6-C4DB-4552-A96A-7596CD5F02ED}"/>
+    <hyperlink ref="E50" r:id="rId46" xr:uid="{5D837EE1-4E85-4FFC-86B9-C16A41C4A66C}"/>
+    <hyperlink ref="E20" r:id="rId47" xr:uid="{823C24EF-1DA9-44C2-81EE-E53E8AB0BEFC}"/>
+    <hyperlink ref="E43" r:id="rId48" xr:uid="{91761C8E-B635-4491-8C95-4E92CB3BA4FB}"/>
+    <hyperlink ref="E52" r:id="rId49" xr:uid="{76081988-14EC-453F-967D-0268C5DA7777}"/>
     <hyperlink ref="E5" r:id="rId50" xr:uid="{9CE86829-0239-48FF-A3D3-A7E7BF54D49B}"/>
-    <hyperlink ref="E21" r:id="rId51" xr:uid="{F4959ACE-BAAD-4BBF-A3A3-74BCDAE0A5DB}"/>
-    <hyperlink ref="E30" r:id="rId52" xr:uid="{7ADB43B5-35FA-4D42-988A-B2D1294BA04B}"/>
-    <hyperlink ref="E17" r:id="rId53" xr:uid="{B71E3A4C-0BE4-418A-AD44-A3B9C80A8D4D}"/>
-    <hyperlink ref="E80" r:id="rId54" xr:uid="{3372A9D1-D915-4DA8-B562-4F013CBDFF76}"/>
-    <hyperlink ref="E81" r:id="rId55" xr:uid="{39149B7F-BBEE-4473-BF84-CFE54479256C}"/>
-    <hyperlink ref="E83" r:id="rId56" xr:uid="{DB6705BF-0FC9-4D4D-A073-C2F2B8EA2793}"/>
-    <hyperlink ref="E82" r:id="rId57" xr:uid="{38E211F4-5E12-4479-847B-6B28228032FD}"/>
-    <hyperlink ref="E79" r:id="rId58" xr:uid="{9CD2469D-1662-4D5A-8280-5F952192CF30}"/>
-    <hyperlink ref="E84" r:id="rId59" xr:uid="{070970E4-CFED-4A08-BDD0-670D25B8D207}"/>
-    <hyperlink ref="E60" r:id="rId60" xr:uid="{0076E308-B71E-45FD-BC55-48C21C5B96AF}"/>
-    <hyperlink ref="E85" r:id="rId61" xr:uid="{763A828E-7BC6-4D90-8EEF-4CD02DB7C3F0}"/>
-    <hyperlink ref="E40" r:id="rId62" xr:uid="{E211F1CB-64DC-42B2-82D4-109795429332}"/>
-    <hyperlink ref="E36" r:id="rId63" xr:uid="{3C45DE30-C557-4859-9A22-F0EE92A94F50}"/>
-    <hyperlink ref="E74" r:id="rId64" xr:uid="{32DCA834-2A5E-4BA5-B172-8B41E716962E}"/>
-    <hyperlink ref="E66" r:id="rId65" xr:uid="{56AC298B-168D-4D78-AF50-6194DBC8ED0F}"/>
-    <hyperlink ref="E67" r:id="rId66" xr:uid="{A7949532-A8E6-4BFA-B244-C9F15CF64209}"/>
-    <hyperlink ref="E10" r:id="rId67" xr:uid="{F7C48F25-092D-4D0C-9A81-AC06044877A5}"/>
-    <hyperlink ref="E55" r:id="rId68" xr:uid="{83B1CDC4-0B45-4DB8-AE85-EF172098481E}"/>
-    <hyperlink ref="E57" r:id="rId69" xr:uid="{8867D8EC-D14E-4966-8966-840905B28B60}"/>
-    <hyperlink ref="E59" r:id="rId70" xr:uid="{03273EBF-9D6C-4B3A-B0CF-E3F275300784}"/>
-    <hyperlink ref="E58" r:id="rId71" xr:uid="{69432D99-C01E-4209-ACF7-A280CE361488}"/>
-    <hyperlink ref="E42" r:id="rId72" xr:uid="{9A81B9F8-2206-440A-8F02-94A6D682B8AD}"/>
-    <hyperlink ref="E73" r:id="rId73" xr:uid="{E1E70935-49E6-4C4C-BAF0-008E8ABB41A3}"/>
-    <hyperlink ref="E18" r:id="rId74" xr:uid="{F53B7D93-AD80-48B7-BF64-C172BBCED456}"/>
-    <hyperlink ref="E25" r:id="rId75" xr:uid="{A03A4C49-02B7-4A3F-AB77-0D70B233DC7D}"/>
-    <hyperlink ref="E26" r:id="rId76" xr:uid="{58C0BC32-85D5-4FC4-A35D-980070F963D3}"/>
-    <hyperlink ref="E35" r:id="rId77" xr:uid="{35874A2A-533E-4EE8-91CD-37332500D082}"/>
+    <hyperlink ref="E22" r:id="rId51" xr:uid="{F4959ACE-BAAD-4BBF-A3A3-74BCDAE0A5DB}"/>
+    <hyperlink ref="E32" r:id="rId52" xr:uid="{7ADB43B5-35FA-4D42-988A-B2D1294BA04B}"/>
+    <hyperlink ref="E18" r:id="rId53" xr:uid="{B71E3A4C-0BE4-418A-AD44-A3B9C80A8D4D}"/>
+    <hyperlink ref="E88" r:id="rId54" xr:uid="{3372A9D1-D915-4DA8-B562-4F013CBDFF76}"/>
+    <hyperlink ref="E89" r:id="rId55" xr:uid="{39149B7F-BBEE-4473-BF84-CFE54479256C}"/>
+    <hyperlink ref="E91" r:id="rId56" xr:uid="{DB6705BF-0FC9-4D4D-A073-C2F2B8EA2793}"/>
+    <hyperlink ref="E90" r:id="rId57" xr:uid="{38E211F4-5E12-4479-847B-6B28228032FD}"/>
+    <hyperlink ref="E87" r:id="rId58" xr:uid="{9CD2469D-1662-4D5A-8280-5F952192CF30}"/>
+    <hyperlink ref="E92" r:id="rId59" xr:uid="{070970E4-CFED-4A08-BDD0-670D25B8D207}"/>
+    <hyperlink ref="E64" r:id="rId60" xr:uid="{0076E308-B71E-45FD-BC55-48C21C5B96AF}"/>
+    <hyperlink ref="E93" r:id="rId61" xr:uid="{763A828E-7BC6-4D90-8EEF-4CD02DB7C3F0}"/>
+    <hyperlink ref="E42" r:id="rId62" xr:uid="{E211F1CB-64DC-42B2-82D4-109795429332}"/>
+    <hyperlink ref="E38" r:id="rId63" xr:uid="{3C45DE30-C557-4859-9A22-F0EE92A94F50}"/>
+    <hyperlink ref="E78" r:id="rId64" xr:uid="{32DCA834-2A5E-4BA5-B172-8B41E716962E}"/>
+    <hyperlink ref="E70" r:id="rId65" xr:uid="{56AC298B-168D-4D78-AF50-6194DBC8ED0F}"/>
+    <hyperlink ref="E71" r:id="rId66" xr:uid="{A7949532-A8E6-4BFA-B244-C9F15CF64209}"/>
+    <hyperlink ref="E11" r:id="rId67" xr:uid="{F7C48F25-092D-4D0C-9A81-AC06044877A5}"/>
+    <hyperlink ref="E57" r:id="rId68" xr:uid="{83B1CDC4-0B45-4DB8-AE85-EF172098481E}"/>
+    <hyperlink ref="E60" r:id="rId69" xr:uid="{8867D8EC-D14E-4966-8966-840905B28B60}"/>
+    <hyperlink ref="E62" r:id="rId70" xr:uid="{03273EBF-9D6C-4B3A-B0CF-E3F275300784}"/>
+    <hyperlink ref="E61" r:id="rId71" xr:uid="{69432D99-C01E-4209-ACF7-A280CE361488}"/>
+    <hyperlink ref="E44" r:id="rId72" xr:uid="{9A81B9F8-2206-440A-8F02-94A6D682B8AD}"/>
+    <hyperlink ref="E77" r:id="rId73" xr:uid="{E1E70935-49E6-4C4C-BAF0-008E8ABB41A3}"/>
+    <hyperlink ref="E19" r:id="rId74" xr:uid="{F53B7D93-AD80-48B7-BF64-C172BBCED456}"/>
+    <hyperlink ref="E26" r:id="rId75" xr:uid="{A03A4C49-02B7-4A3F-AB77-0D70B233DC7D}"/>
+    <hyperlink ref="E28" r:id="rId76" xr:uid="{58C0BC32-85D5-4FC4-A35D-980070F963D3}"/>
+    <hyperlink ref="E37" r:id="rId77" xr:uid="{35874A2A-533E-4EE8-91CD-37332500D082}"/>
     <hyperlink ref="E4" r:id="rId78" xr:uid="{ECE5C020-1789-4EA2-B1BA-0F2B89204794}"/>
-    <hyperlink ref="E7" r:id="rId79" xr:uid="{59519D6A-97B5-4D3C-A940-9CD226B6F6FC}"/>
-    <hyperlink ref="E49" r:id="rId80" xr:uid="{D4963B2A-CADD-4712-92B1-F2B75738437E}"/>
-    <hyperlink ref="E9" r:id="rId81" xr:uid="{7C21201A-7A38-483C-A584-28A89AA2D33C}"/>
-    <hyperlink ref="E15" r:id="rId82" xr:uid="{71F43CB7-910D-4F51-BC93-84940F0F6035}"/>
-    <hyperlink ref="E23" r:id="rId83" xr:uid="{07C8B71A-A968-4C80-9695-B23E1820982A}"/>
-    <hyperlink ref="E29" r:id="rId84" xr:uid="{A44A0234-D366-4F57-B362-977B9D0BB312}"/>
-    <hyperlink ref="E31" r:id="rId85" xr:uid="{68F7BF1F-4C6D-4B96-B966-67E856A2CE04}"/>
-    <hyperlink ref="E33" r:id="rId86" xr:uid="{C62C5C31-2463-446A-9E16-71FEFA26F368}"/>
-    <hyperlink ref="E34" r:id="rId87" xr:uid="{3880EABE-2C99-4DEE-BD6E-614133BBD597}"/>
+    <hyperlink ref="E8" r:id="rId79" xr:uid="{59519D6A-97B5-4D3C-A940-9CD226B6F6FC}"/>
+    <hyperlink ref="E51" r:id="rId80" xr:uid="{D4963B2A-CADD-4712-92B1-F2B75738437E}"/>
+    <hyperlink ref="E10" r:id="rId81" xr:uid="{7C21201A-7A38-483C-A584-28A89AA2D33C}"/>
+    <hyperlink ref="E16" r:id="rId82" xr:uid="{71F43CB7-910D-4F51-BC93-84940F0F6035}"/>
+    <hyperlink ref="E24" r:id="rId83" xr:uid="{07C8B71A-A968-4C80-9695-B23E1820982A}"/>
+    <hyperlink ref="E31" r:id="rId84" xr:uid="{A44A0234-D366-4F57-B362-977B9D0BB312}"/>
+    <hyperlink ref="E33" r:id="rId85" xr:uid="{68F7BF1F-4C6D-4B96-B966-67E856A2CE04}"/>
+    <hyperlink ref="E35" r:id="rId86" xr:uid="{C62C5C31-2463-446A-9E16-71FEFA26F368}"/>
+    <hyperlink ref="E36" r:id="rId87" xr:uid="{3880EABE-2C99-4DEE-BD6E-614133BBD597}"/>
+    <hyperlink ref="E27" r:id="rId88" xr:uid="{FD7B1F31-65D8-4675-BFF0-AA0389F9071F}"/>
+    <hyperlink ref="E7" r:id="rId89" xr:uid="{ADDC9518-B660-4A14-8B25-3494F4DE58FD}"/>
+    <hyperlink ref="E97" r:id="rId90" xr:uid="{6F4A7E63-C898-43C4-A859-C47841CAE439}"/>
+    <hyperlink ref="E100" r:id="rId91" xr:uid="{4B33DA6F-FA1C-4653-A331-09DBF24F2C78}"/>
+    <hyperlink ref="E101" r:id="rId92" xr:uid="{8181801C-F28E-4601-A342-C272A1A80CD5}"/>
+    <hyperlink ref="E102" r:id="rId93" xr:uid="{F7F65E02-7308-4800-9A21-22482BEC1E5B}"/>
+    <hyperlink ref="E79" r:id="rId94" xr:uid="{6D8EDDA3-E40E-4D50-916D-EF3850663BBC}"/>
+    <hyperlink ref="E80" r:id="rId95" xr:uid="{0F09D3FC-B39E-4273-A07E-1E99C0E144BB}"/>
+    <hyperlink ref="E94" r:id="rId96" xr:uid="{0DCC2978-2CE6-45AC-B8BC-8B045192F0C9}"/>
+    <hyperlink ref="E82" r:id="rId97" xr:uid="{712D7F26-B672-4BE2-B51B-ED2CBC48279F}"/>
+    <hyperlink ref="E81" r:id="rId98" xr:uid="{8E169065-B987-47E8-8E50-CA4F6ED2C96E}"/>
+    <hyperlink ref="E63" r:id="rId99" xr:uid="{C02F0453-54B0-446F-9DEB-5A87ADC19BEB}"/>
+    <hyperlink ref="E59" r:id="rId100" xr:uid="{2D956993-77DD-49DB-866D-82402FC7696B}"/>
+    <hyperlink ref="E99" r:id="rId101" xr:uid="{ACB8A302-FC5B-4452-B424-C8CB3DEE4FA0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId88"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId102"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9660FEEF-D01E-46FB-B675-E8067BA1B9C2}">
-  <dimension ref="A1"/>
+  <dimension ref="B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/AstroLinks.xlsx
+++ b/AstroLinks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\albusmw.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF79C0E-DF29-40A3-9EB2-F3B86B3FC678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E94D07-71E3-49BD-88C8-1652F8BB5F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5175" yWindow="0" windowWidth="28515" windowHeight="23400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19605" yWindow="2940" windowWidth="27450" windowHeight="25065" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Astro link list" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="328">
   <si>
     <t>Manufacturers</t>
   </si>
@@ -914,6 +914,102 @@
   </si>
   <si>
     <t>Discussion forum</t>
+  </si>
+  <si>
+    <t>Observatories</t>
+  </si>
+  <si>
+    <t>https://www.sternwarte-baerenstein.de</t>
+  </si>
+  <si>
+    <t>Sternwarte Bärenstein</t>
+  </si>
+  <si>
+    <t>Observatory of Marcel Drechsler</t>
+  </si>
+  <si>
+    <t>Astronomical Catalogs</t>
+  </si>
+  <si>
+    <t>Sharpless</t>
+  </si>
+  <si>
+    <t>http://www.sharplesscatalog.com/sharpless.aspx</t>
+  </si>
+  <si>
+    <t>Emission nebulae catalog</t>
+  </si>
+  <si>
+    <t>Catalog list</t>
+  </si>
+  <si>
+    <t>List of all astronomical catalogs</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_astronomical_catalogues</t>
+  </si>
+  <si>
+    <t>Messier</t>
+  </si>
+  <si>
+    <t>NGC</t>
+  </si>
+  <si>
+    <t>http://spider.seds.org/ngc/ngc.html</t>
+  </si>
+  <si>
+    <t>New General Catalogue - 7840 objects</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Messier_object</t>
+  </si>
+  <si>
+    <t>Messier catalog - 110 objects</t>
+  </si>
+  <si>
+    <t>Most complete library of published astronomical catalogues</t>
+  </si>
+  <si>
+    <t>Interactive sky atlas</t>
+  </si>
+  <si>
+    <t>Astronomical Database of CDS (Strasbourg)</t>
+  </si>
+  <si>
+    <t>https://astrofotografie.hohmann-edv.de</t>
+  </si>
+  <si>
+    <t>Klaus Hohmann</t>
+  </si>
+  <si>
+    <t>German page</t>
+  </si>
+  <si>
+    <t>Stacking &amp; More</t>
+  </si>
+  <si>
+    <t>RegiStar</t>
+  </si>
+  <si>
+    <t>https://aurigaimaging.com/</t>
+  </si>
+  <si>
+    <t>Planner</t>
+  </si>
+  <si>
+    <t>Eye &amp; Telescope</t>
+  </si>
+  <si>
+    <t>https://www.eyeandtelescope.com/</t>
+  </si>
+  <si>
+    <t>Observatory</t>
+  </si>
+  <si>
+    <t>https://codeobsession.com/</t>
+  </si>
+  <si>
+    <t>Mit aufnehmen</t>
   </si>
 </sst>
 </file>
@@ -1254,10 +1350,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:E109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D100" sqref="D100"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2014,6 +2111,9 @@
       <c r="C60" t="s">
         <v>204</v>
       </c>
+      <c r="D60" t="s">
+        <v>313</v>
+      </c>
       <c r="E60" s="2" t="s">
         <v>203</v>
       </c>
@@ -2023,6 +2123,9 @@
       <c r="C61" t="s">
         <v>207</v>
       </c>
+      <c r="D61" t="s">
+        <v>314</v>
+      </c>
       <c r="E61" s="2" t="s">
         <v>208</v>
       </c>
@@ -2032,6 +2135,9 @@
       <c r="C62" t="s">
         <v>206</v>
       </c>
+      <c r="D62" t="s">
+        <v>315</v>
+      </c>
       <c r="E62" s="2" t="s">
         <v>205</v>
       </c>
@@ -2039,511 +2145,591 @@
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="C63" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="D63" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
-      <c r="B64" t="s">
-        <v>201</v>
-      </c>
       <c r="C64" t="s">
-        <v>175</v>
+        <v>307</v>
       </c>
       <c r="D64" t="s">
-        <v>176</v>
+        <v>312</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>174</v>
+        <v>311</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>70</v>
-      </c>
+      <c r="A65" s="3"/>
       <c r="C65" t="s">
-        <v>72</v>
+        <v>308</v>
       </c>
       <c r="D65" t="s">
-        <v>73</v>
+        <v>310</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>71</v>
+        <v>309</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B66" t="s">
-        <v>88</v>
-      </c>
+      <c r="A66" s="3"/>
       <c r="C66" t="s">
-        <v>26</v>
+        <v>301</v>
       </c>
       <c r="D66" t="s">
-        <v>32</v>
+        <v>303</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>39</v>
+        <v>302</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
+      <c r="B67" t="s">
+        <v>286</v>
+      </c>
       <c r="C67" t="s">
-        <v>43</v>
+        <v>287</v>
       </c>
       <c r="D67" t="s">
-        <v>46</v>
+        <v>292</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>50</v>
+        <v>288</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
+      <c r="B68" t="s">
+        <v>201</v>
+      </c>
       <c r="C68" t="s">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="D68" t="s">
-        <v>51</v>
+        <v>176</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>48</v>
+        <v>174</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="3"/>
+      <c r="A69" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="C69" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="D69" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="3"/>
+      <c r="A70" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B70" t="s">
+        <v>88</v>
+      </c>
       <c r="C70" t="s">
-        <v>189</v>
+        <v>26</v>
       </c>
       <c r="D70" t="s">
-        <v>190</v>
+        <v>32</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>188</v>
+        <v>39</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="C71" t="s">
-        <v>192</v>
+        <v>43</v>
       </c>
       <c r="D71" t="s">
-        <v>193</v>
+        <v>46</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>191</v>
+        <v>50</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="C72" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D72" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="C73" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D73" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
-      <c r="B74" t="s">
-        <v>89</v>
-      </c>
       <c r="C74" t="s">
-        <v>60</v>
+        <v>189</v>
       </c>
       <c r="D74" t="s">
-        <v>58</v>
+        <v>190</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>61</v>
+        <v>188</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="C75" t="s">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="D75" t="s">
-        <v>58</v>
+        <v>193</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>81</v>
+        <v>191</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="C76" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D76" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="C77" t="s">
-        <v>212</v>
+        <v>57</v>
       </c>
       <c r="D77" t="s">
-        <v>214</v>
+        <v>58</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>213</v>
+        <v>59</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
+      <c r="B78" t="s">
+        <v>89</v>
+      </c>
       <c r="C78" t="s">
-        <v>186</v>
+        <v>60</v>
       </c>
       <c r="D78" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>187</v>
+        <v>61</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
-      <c r="B79" t="s">
-        <v>272</v>
-      </c>
       <c r="C79" t="s">
-        <v>273</v>
+        <v>79</v>
       </c>
       <c r="D79" t="s">
-        <v>283</v>
+        <v>58</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>280</v>
+        <v>81</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="C80" t="s">
-        <v>274</v>
+        <v>62</v>
       </c>
       <c r="D80" t="s">
-        <v>283</v>
+        <v>80</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>279</v>
+        <v>65</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="C81" t="s">
-        <v>284</v>
+        <v>212</v>
+      </c>
+      <c r="D81" t="s">
+        <v>214</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>285</v>
+        <v>213</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="C82" t="s">
-        <v>281</v>
+        <v>186</v>
       </c>
       <c r="D82" t="s">
-        <v>282</v>
+        <v>80</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>278</v>
+        <v>187</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" t="s">
-        <v>91</v>
+        <v>272</v>
       </c>
       <c r="C83" t="s">
-        <v>67</v>
+        <v>273</v>
       </c>
       <c r="D83" t="s">
-        <v>69</v>
+        <v>283</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>68</v>
+        <v>280</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
-      <c r="B84" t="s">
-        <v>90</v>
-      </c>
       <c r="C84" t="s">
-        <v>44</v>
+        <v>274</v>
       </c>
       <c r="D84" t="s">
-        <v>45</v>
+        <v>283</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>49</v>
+        <v>279</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="C85" t="s">
-        <v>63</v>
-      </c>
-      <c r="D85" t="s">
-        <v>66</v>
+        <v>284</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>64</v>
+        <v>285</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="C86" t="s">
-        <v>27</v>
+        <v>281</v>
       </c>
       <c r="D86" t="s">
-        <v>33</v>
+        <v>282</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>38</v>
+        <v>278</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
+      <c r="B87" t="s">
+        <v>91</v>
+      </c>
       <c r="C87" t="s">
-        <v>167</v>
+        <v>67</v>
       </c>
       <c r="D87" t="s">
-        <v>169</v>
+        <v>69</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>168</v>
+        <v>68</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
-        <v>153</v>
-      </c>
+      <c r="A88" s="3"/>
       <c r="B88" t="s">
-        <v>154</v>
+        <v>90</v>
       </c>
       <c r="C88" t="s">
-        <v>156</v>
+        <v>44</v>
       </c>
       <c r="D88" t="s">
-        <v>166</v>
+        <v>45</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>155</v>
+        <v>49</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="C89" t="s">
-        <v>157</v>
+        <v>63</v>
       </c>
       <c r="D89" t="s">
-        <v>164</v>
+        <v>66</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>158</v>
+        <v>64</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="C90" t="s">
-        <v>162</v>
+        <v>27</v>
       </c>
       <c r="D90" t="s">
-        <v>165</v>
+        <v>33</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>163</v>
+        <v>38</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
-      <c r="B91" t="s">
-        <v>159</v>
-      </c>
       <c r="C91" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="D91" t="s">
-        <v>215</v>
+        <v>169</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="3"/>
+      <c r="A92" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B92" t="s">
+        <v>154</v>
+      </c>
       <c r="C92" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="D92" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="C93" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="D93" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
+        <v>162</v>
+      </c>
+      <c r="D94" t="s">
+        <v>165</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="3"/>
+      <c r="B95" t="s">
+        <v>159</v>
+      </c>
+      <c r="C95" t="s">
+        <v>161</v>
+      </c>
+      <c r="D95" t="s">
+        <v>215</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="3"/>
+      <c r="C96" t="s">
+        <v>171</v>
+      </c>
+      <c r="D96" t="s">
+        <v>172</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="3"/>
+      <c r="C97" t="s">
+        <v>178</v>
+      </c>
+      <c r="D97" t="s">
+        <v>179</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="3"/>
+      <c r="B98" t="s">
         <v>275</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C98" t="s">
         <v>277</v>
       </c>
-      <c r="E94" s="2" t="s">
+      <c r="E98" s="2" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="3"/>
+      <c r="C99" t="s">
+        <v>317</v>
+      </c>
+      <c r="D99" t="s">
+        <v>318</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
         <v>151</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C100" t="s">
         <v>92</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D100" t="s">
         <v>173</v>
       </c>
-      <c r="E95" s="2" t="s">
+      <c r="E100" s="2" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C96" t="s">
-        <v>93</v>
-      </c>
-      <c r="D96" t="s">
-        <v>173</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B97" t="s">
-        <v>260</v>
-      </c>
-      <c r="C97" t="s">
-        <v>259</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B98" t="s">
-        <v>152</v>
-      </c>
-      <c r="C98" t="s">
-        <v>94</v>
-      </c>
-      <c r="D98" t="s">
-        <v>34</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C99" t="s">
-        <v>294</v>
-      </c>
-      <c r="D99" t="s">
-        <v>295</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="C100" t="s">
-        <v>264</v>
-      </c>
-      <c r="D100" t="s">
-        <v>263</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
+        <v>93</v>
+      </c>
+      <c r="D101" t="s">
+        <v>173</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>260</v>
+      </c>
+      <c r="C102" t="s">
+        <v>259</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>152</v>
+      </c>
+      <c r="C103" t="s">
+        <v>94</v>
+      </c>
+      <c r="D103" t="s">
+        <v>34</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C104" t="s">
+        <v>294</v>
+      </c>
+      <c r="D104" t="s">
+        <v>295</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C105" t="s">
+        <v>298</v>
+      </c>
+      <c r="D105" t="s">
+        <v>299</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E106" s="2"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C107" t="s">
+        <v>264</v>
+      </c>
+      <c r="D107" t="s">
+        <v>263</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C108" t="s">
         <v>269</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D108" t="s">
         <v>270</v>
       </c>
-      <c r="E101" s="2" t="s">
+      <c r="E108" s="2" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C102" t="s">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C109" t="s">
         <v>267</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D109" t="s">
         <v>268</v>
       </c>
-      <c r="E102" s="2" t="s">
+      <c r="E109" s="2" t="s">
         <v>266</v>
       </c>
     </row>
@@ -2560,27 +2746,27 @@
     <hyperlink ref="E29" r:id="rId6" xr:uid="{344342D3-7511-4B9E-B249-4418AD0199BE}"/>
     <hyperlink ref="E45" r:id="rId7" xr:uid="{4EF4F687-5DA0-4139-8ED8-796CFD048723}"/>
     <hyperlink ref="E48" r:id="rId8" xr:uid="{37D7C35D-E37D-46D4-A772-8C5F56A639FB}"/>
-    <hyperlink ref="E98" r:id="rId9" xr:uid="{DD799009-88CA-47D1-A62F-A369A7611629}"/>
-    <hyperlink ref="E96" r:id="rId10" xr:uid="{47871777-D164-4285-88D9-4711D0F09B7A}"/>
-    <hyperlink ref="E95" r:id="rId11" xr:uid="{CD4F6830-69C8-4883-9D38-40F7904D38BC}"/>
-    <hyperlink ref="E86" r:id="rId12" xr:uid="{F287F050-BDBD-48DA-9C9F-974F06AA77BE}"/>
-    <hyperlink ref="E66" r:id="rId13" xr:uid="{46C95A92-BF48-4811-9105-E8D5B1561956}"/>
+    <hyperlink ref="E103" r:id="rId9" xr:uid="{DD799009-88CA-47D1-A62F-A369A7611629}"/>
+    <hyperlink ref="E101" r:id="rId10" xr:uid="{47871777-D164-4285-88D9-4711D0F09B7A}"/>
+    <hyperlink ref="E100" r:id="rId11" xr:uid="{CD4F6830-69C8-4883-9D38-40F7904D38BC}"/>
+    <hyperlink ref="E90" r:id="rId12" xr:uid="{F287F050-BDBD-48DA-9C9F-974F06AA77BE}"/>
+    <hyperlink ref="E70" r:id="rId13" xr:uid="{46C95A92-BF48-4811-9105-E8D5B1561956}"/>
     <hyperlink ref="E56" r:id="rId14" xr:uid="{F39BDEEC-98CD-4603-8BB0-C3A8A97480DF}"/>
     <hyperlink ref="E55" r:id="rId15" xr:uid="{F4EFC9A1-C16B-4301-9043-301231F70123}"/>
-    <hyperlink ref="E67" r:id="rId16" xr:uid="{4CFC1F41-61FD-4074-855F-CF3EEE0D0FDE}"/>
-    <hyperlink ref="E84" r:id="rId17" xr:uid="{E74C0201-0319-40FB-A895-7E89AA462910}"/>
-    <hyperlink ref="E68" r:id="rId18" xr:uid="{1F51060D-CE80-4B4D-8BA3-277A92EE5ECB}"/>
-    <hyperlink ref="E69" r:id="rId19" xr:uid="{7FFDFD49-84C7-44D0-A42D-31A77AD96560}"/>
-    <hyperlink ref="E72" r:id="rId20" xr:uid="{25C2D0D0-29CE-44D1-92ED-0F0E9FDC6C3E}"/>
-    <hyperlink ref="E73" r:id="rId21" xr:uid="{B734E3CD-BAE2-41DD-B996-9058CD6AC298}"/>
-    <hyperlink ref="E74" r:id="rId22" xr:uid="{092C66D6-96F2-4CD7-AB26-5E0E2307F0CC}"/>
-    <hyperlink ref="E76" r:id="rId23" xr:uid="{3A8B895B-D350-4E71-843C-AA2F6E4308FA}"/>
-    <hyperlink ref="E85" r:id="rId24" xr:uid="{33FC1295-8080-4A43-970F-94C51D7E0D5C}"/>
-    <hyperlink ref="E83" r:id="rId25" xr:uid="{B0401EF0-1543-42B9-B581-1F0870C67BB1}"/>
-    <hyperlink ref="E65" r:id="rId26" xr:uid="{0C64FEE0-E696-4121-9E40-CDB19EA4F6DB}"/>
+    <hyperlink ref="E71" r:id="rId16" xr:uid="{4CFC1F41-61FD-4074-855F-CF3EEE0D0FDE}"/>
+    <hyperlink ref="E88" r:id="rId17" xr:uid="{E74C0201-0319-40FB-A895-7E89AA462910}"/>
+    <hyperlink ref="E72" r:id="rId18" xr:uid="{1F51060D-CE80-4B4D-8BA3-277A92EE5ECB}"/>
+    <hyperlink ref="E73" r:id="rId19" xr:uid="{7FFDFD49-84C7-44D0-A42D-31A77AD96560}"/>
+    <hyperlink ref="E76" r:id="rId20" xr:uid="{25C2D0D0-29CE-44D1-92ED-0F0E9FDC6C3E}"/>
+    <hyperlink ref="E77" r:id="rId21" xr:uid="{B734E3CD-BAE2-41DD-B996-9058CD6AC298}"/>
+    <hyperlink ref="E78" r:id="rId22" xr:uid="{092C66D6-96F2-4CD7-AB26-5E0E2307F0CC}"/>
+    <hyperlink ref="E80" r:id="rId23" xr:uid="{3A8B895B-D350-4E71-843C-AA2F6E4308FA}"/>
+    <hyperlink ref="E89" r:id="rId24" xr:uid="{33FC1295-8080-4A43-970F-94C51D7E0D5C}"/>
+    <hyperlink ref="E87" r:id="rId25" xr:uid="{B0401EF0-1543-42B9-B581-1F0870C67BB1}"/>
+    <hyperlink ref="E69" r:id="rId26" xr:uid="{0C64FEE0-E696-4121-9E40-CDB19EA4F6DB}"/>
     <hyperlink ref="E54" r:id="rId27" xr:uid="{53D67402-7738-4BDF-98B9-06D860D9BEAE}"/>
     <hyperlink ref="E46" r:id="rId28" xr:uid="{1B5423F0-F04D-42F6-8909-FE8F05FD6139}"/>
-    <hyperlink ref="E75" r:id="rId29" xr:uid="{C17FC7E6-9650-47B0-ACBB-2F8314255584}"/>
+    <hyperlink ref="E79" r:id="rId29" xr:uid="{C17FC7E6-9650-47B0-ACBB-2F8314255584}"/>
     <hyperlink ref="E58" r:id="rId30" xr:uid="{9BFC5734-BDBE-4EBF-8D4A-2F3CD3EE5837}"/>
     <hyperlink ref="E39" r:id="rId31" xr:uid="{EFFC63C1-3263-4F38-BEF9-B44368779D7D}"/>
     <hyperlink ref="E23" r:id="rId32" xr:uid="{4C0B3322-8974-41C4-B9BC-9DE774765E48}"/>
@@ -2605,26 +2791,26 @@
     <hyperlink ref="E22" r:id="rId51" xr:uid="{F4959ACE-BAAD-4BBF-A3A3-74BCDAE0A5DB}"/>
     <hyperlink ref="E32" r:id="rId52" xr:uid="{7ADB43B5-35FA-4D42-988A-B2D1294BA04B}"/>
     <hyperlink ref="E18" r:id="rId53" xr:uid="{B71E3A4C-0BE4-418A-AD44-A3B9C80A8D4D}"/>
-    <hyperlink ref="E88" r:id="rId54" xr:uid="{3372A9D1-D915-4DA8-B562-4F013CBDFF76}"/>
-    <hyperlink ref="E89" r:id="rId55" xr:uid="{39149B7F-BBEE-4473-BF84-CFE54479256C}"/>
-    <hyperlink ref="E91" r:id="rId56" xr:uid="{DB6705BF-0FC9-4D4D-A073-C2F2B8EA2793}"/>
-    <hyperlink ref="E90" r:id="rId57" xr:uid="{38E211F4-5E12-4479-847B-6B28228032FD}"/>
-    <hyperlink ref="E87" r:id="rId58" xr:uid="{9CD2469D-1662-4D5A-8280-5F952192CF30}"/>
-    <hyperlink ref="E92" r:id="rId59" xr:uid="{070970E4-CFED-4A08-BDD0-670D25B8D207}"/>
-    <hyperlink ref="E64" r:id="rId60" xr:uid="{0076E308-B71E-45FD-BC55-48C21C5B96AF}"/>
-    <hyperlink ref="E93" r:id="rId61" xr:uid="{763A828E-7BC6-4D90-8EEF-4CD02DB7C3F0}"/>
+    <hyperlink ref="E92" r:id="rId54" xr:uid="{3372A9D1-D915-4DA8-B562-4F013CBDFF76}"/>
+    <hyperlink ref="E93" r:id="rId55" xr:uid="{39149B7F-BBEE-4473-BF84-CFE54479256C}"/>
+    <hyperlink ref="E95" r:id="rId56" xr:uid="{DB6705BF-0FC9-4D4D-A073-C2F2B8EA2793}"/>
+    <hyperlink ref="E94" r:id="rId57" xr:uid="{38E211F4-5E12-4479-847B-6B28228032FD}"/>
+    <hyperlink ref="E91" r:id="rId58" xr:uid="{9CD2469D-1662-4D5A-8280-5F952192CF30}"/>
+    <hyperlink ref="E96" r:id="rId59" xr:uid="{070970E4-CFED-4A08-BDD0-670D25B8D207}"/>
+    <hyperlink ref="E68" r:id="rId60" xr:uid="{0076E308-B71E-45FD-BC55-48C21C5B96AF}"/>
+    <hyperlink ref="E97" r:id="rId61" xr:uid="{763A828E-7BC6-4D90-8EEF-4CD02DB7C3F0}"/>
     <hyperlink ref="E42" r:id="rId62" xr:uid="{E211F1CB-64DC-42B2-82D4-109795429332}"/>
     <hyperlink ref="E38" r:id="rId63" xr:uid="{3C45DE30-C557-4859-9A22-F0EE92A94F50}"/>
-    <hyperlink ref="E78" r:id="rId64" xr:uid="{32DCA834-2A5E-4BA5-B172-8B41E716962E}"/>
-    <hyperlink ref="E70" r:id="rId65" xr:uid="{56AC298B-168D-4D78-AF50-6194DBC8ED0F}"/>
-    <hyperlink ref="E71" r:id="rId66" xr:uid="{A7949532-A8E6-4BFA-B244-C9F15CF64209}"/>
+    <hyperlink ref="E82" r:id="rId64" xr:uid="{32DCA834-2A5E-4BA5-B172-8B41E716962E}"/>
+    <hyperlink ref="E74" r:id="rId65" xr:uid="{56AC298B-168D-4D78-AF50-6194DBC8ED0F}"/>
+    <hyperlink ref="E75" r:id="rId66" xr:uid="{A7949532-A8E6-4BFA-B244-C9F15CF64209}"/>
     <hyperlink ref="E11" r:id="rId67" xr:uid="{F7C48F25-092D-4D0C-9A81-AC06044877A5}"/>
     <hyperlink ref="E57" r:id="rId68" xr:uid="{83B1CDC4-0B45-4DB8-AE85-EF172098481E}"/>
     <hyperlink ref="E60" r:id="rId69" xr:uid="{8867D8EC-D14E-4966-8966-840905B28B60}"/>
     <hyperlink ref="E62" r:id="rId70" xr:uid="{03273EBF-9D6C-4B3A-B0CF-E3F275300784}"/>
     <hyperlink ref="E61" r:id="rId71" xr:uid="{69432D99-C01E-4209-ACF7-A280CE361488}"/>
     <hyperlink ref="E44" r:id="rId72" xr:uid="{9A81B9F8-2206-440A-8F02-94A6D682B8AD}"/>
-    <hyperlink ref="E77" r:id="rId73" xr:uid="{E1E70935-49E6-4C4C-BAF0-008E8ABB41A3}"/>
+    <hyperlink ref="E81" r:id="rId73" xr:uid="{E1E70935-49E6-4C4C-BAF0-008E8ABB41A3}"/>
     <hyperlink ref="E19" r:id="rId74" xr:uid="{F53B7D93-AD80-48B7-BF64-C172BBCED456}"/>
     <hyperlink ref="E26" r:id="rId75" xr:uid="{A03A4C49-02B7-4A3F-AB77-0D70B233DC7D}"/>
     <hyperlink ref="E28" r:id="rId76" xr:uid="{58C0BC32-85D5-4FC4-A35D-980070F963D3}"/>
@@ -2641,40 +2827,90 @@
     <hyperlink ref="E36" r:id="rId87" xr:uid="{3880EABE-2C99-4DEE-BD6E-614133BBD597}"/>
     <hyperlink ref="E27" r:id="rId88" xr:uid="{FD7B1F31-65D8-4675-BFF0-AA0389F9071F}"/>
     <hyperlink ref="E7" r:id="rId89" xr:uid="{ADDC9518-B660-4A14-8B25-3494F4DE58FD}"/>
-    <hyperlink ref="E97" r:id="rId90" xr:uid="{6F4A7E63-C898-43C4-A859-C47841CAE439}"/>
-    <hyperlink ref="E100" r:id="rId91" xr:uid="{4B33DA6F-FA1C-4653-A331-09DBF24F2C78}"/>
-    <hyperlink ref="E101" r:id="rId92" xr:uid="{8181801C-F28E-4601-A342-C272A1A80CD5}"/>
-    <hyperlink ref="E102" r:id="rId93" xr:uid="{F7F65E02-7308-4800-9A21-22482BEC1E5B}"/>
-    <hyperlink ref="E79" r:id="rId94" xr:uid="{6D8EDDA3-E40E-4D50-916D-EF3850663BBC}"/>
-    <hyperlink ref="E80" r:id="rId95" xr:uid="{0F09D3FC-B39E-4273-A07E-1E99C0E144BB}"/>
-    <hyperlink ref="E94" r:id="rId96" xr:uid="{0DCC2978-2CE6-45AC-B8BC-8B045192F0C9}"/>
-    <hyperlink ref="E82" r:id="rId97" xr:uid="{712D7F26-B672-4BE2-B51B-ED2CBC48279F}"/>
-    <hyperlink ref="E81" r:id="rId98" xr:uid="{8E169065-B987-47E8-8E50-CA4F6ED2C96E}"/>
-    <hyperlink ref="E63" r:id="rId99" xr:uid="{C02F0453-54B0-446F-9DEB-5A87ADC19BEB}"/>
+    <hyperlink ref="E102" r:id="rId90" xr:uid="{6F4A7E63-C898-43C4-A859-C47841CAE439}"/>
+    <hyperlink ref="E107" r:id="rId91" xr:uid="{4B33DA6F-FA1C-4653-A331-09DBF24F2C78}"/>
+    <hyperlink ref="E108" r:id="rId92" xr:uid="{8181801C-F28E-4601-A342-C272A1A80CD5}"/>
+    <hyperlink ref="E109" r:id="rId93" xr:uid="{F7F65E02-7308-4800-9A21-22482BEC1E5B}"/>
+    <hyperlink ref="E83" r:id="rId94" xr:uid="{6D8EDDA3-E40E-4D50-916D-EF3850663BBC}"/>
+    <hyperlink ref="E84" r:id="rId95" xr:uid="{0F09D3FC-B39E-4273-A07E-1E99C0E144BB}"/>
+    <hyperlink ref="E98" r:id="rId96" xr:uid="{0DCC2978-2CE6-45AC-B8BC-8B045192F0C9}"/>
+    <hyperlink ref="E86" r:id="rId97" xr:uid="{712D7F26-B672-4BE2-B51B-ED2CBC48279F}"/>
+    <hyperlink ref="E85" r:id="rId98" xr:uid="{8E169065-B987-47E8-8E50-CA4F6ED2C96E}"/>
+    <hyperlink ref="E67" r:id="rId99" xr:uid="{C02F0453-54B0-446F-9DEB-5A87ADC19BEB}"/>
     <hyperlink ref="E59" r:id="rId100" xr:uid="{2D956993-77DD-49DB-866D-82402FC7696B}"/>
-    <hyperlink ref="E99" r:id="rId101" xr:uid="{ACB8A302-FC5B-4452-B424-C8CB3DEE4FA0}"/>
+    <hyperlink ref="E104" r:id="rId101" xr:uid="{ACB8A302-FC5B-4452-B424-C8CB3DEE4FA0}"/>
+    <hyperlink ref="E105" r:id="rId102" xr:uid="{83CE61C1-D738-4C92-BC0A-064601C0BCA2}"/>
+    <hyperlink ref="E66" r:id="rId103" xr:uid="{70EAB6FC-3E29-49B0-9457-A822474F361E}"/>
+    <hyperlink ref="E63" r:id="rId104" xr:uid="{88413F84-ACBE-46E1-82EA-C9C1DFDE61F8}"/>
+    <hyperlink ref="E65" r:id="rId105" xr:uid="{D3CCCE93-E500-4ABE-AAF0-8A60345F6819}"/>
+    <hyperlink ref="E64" r:id="rId106" xr:uid="{369033E1-9E29-4D2B-A541-6FE7834DC211}"/>
+    <hyperlink ref="E99" r:id="rId107" xr:uid="{80539D3E-C02E-4D16-83A9-5FAD80D4BF60}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId102"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId108"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9660FEEF-D01E-46FB-B675-E8067BA1B9C2}">
-  <dimension ref="B2"/>
+  <dimension ref="B2:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>271</v>
       </c>
     </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>322</v>
+      </c>
+      <c r="C8" t="s">
+        <v>323</v>
+      </c>
+      <c r="D8" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>322</v>
+      </c>
+      <c r="C9" t="s">
+        <v>325</v>
+      </c>
+      <c r="D9" t="s">
+        <v>326</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/AstroLinks.xlsx
+++ b/AstroLinks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\albusmw.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E94D07-71E3-49BD-88C8-1652F8BB5F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56E63A3-5C64-42A9-8AA7-217E1B6B7125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19605" yWindow="2940" windowWidth="27450" windowHeight="25065" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14160" yWindow="1650" windowWidth="31785" windowHeight="28710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Astro link list" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="358">
   <si>
     <t>Manufacturers</t>
   </si>
@@ -1010,6 +1010,96 @@
   </si>
   <si>
     <t>Mit aufnehmen</t>
+  </si>
+  <si>
+    <t>Moon</t>
+  </si>
+  <si>
+    <t>Der Mond</t>
+  </si>
+  <si>
+    <t>https://www.der-mond.de</t>
+  </si>
+  <si>
+    <t>Aktuelles, Wissen und Beobachtung rund um den Erdtrabanten</t>
+  </si>
+  <si>
+    <t>https://magicviews.de</t>
+  </si>
+  <si>
+    <t>Wolfgang Bischof</t>
+  </si>
+  <si>
+    <t>https://www.damianpeach.com</t>
+  </si>
+  <si>
+    <t>Damian Peach</t>
+  </si>
+  <si>
+    <t>Solar System Images</t>
+  </si>
+  <si>
+    <t>John Myers</t>
+  </si>
+  <si>
+    <t>https://pixelsight.org</t>
+  </si>
+  <si>
+    <t>Also astro images</t>
+  </si>
+  <si>
+    <t>Newspaper articles</t>
+  </si>
+  <si>
+    <t>https://www.merkur.de/lokales/wolfratshausen/koenigsdorf-ort377103/koenigsdorf-hobby-astronom-enrico-verliert-seine-finca-auf-la-palma-91129904.html</t>
+  </si>
+  <si>
+    <t>https://www.merkur.de/lokales/wolfratshausen/koenigsdorf-ort377103/enrico-enzmann-der-sternengucker-90062991.html</t>
+  </si>
+  <si>
+    <t>Enrico Enzmann</t>
+  </si>
+  <si>
+    <t>https://apollo-13.eu</t>
+  </si>
+  <si>
+    <t>Weltraum-Atelier Nohfelden</t>
+  </si>
+  <si>
+    <t>Projekt of Sebastian Voltmer</t>
+  </si>
+  <si>
+    <t>https://www.merkur.de/lokales/region-holzkirchen/holzkirchen-ort28831/vom-kuechentisch-ins-all-zu-besuch-in-sternwarte-in-holzkirchen-10222591.html</t>
+  </si>
+  <si>
+    <t>Martin Weiss</t>
+  </si>
+  <si>
+    <t>https://www.freundegymb.de/2017/04/06/freunde-sind-wie-sterne/</t>
+  </si>
+  <si>
+    <t>Gynmasium Miesbach</t>
+  </si>
+  <si>
+    <t>https://www.merkur.de/lokales/region-holzkirchen/holzkirchen-ort28831/hobbyastronom-sicht-wird-klarer-13799105.html</t>
+  </si>
+  <si>
+    <t>ImPPG</t>
+  </si>
+  <si>
+    <t>Free Image Post-Processor, mainly for solar and lunar</t>
+  </si>
+  <si>
+    <t>https://greatattractor.github.io/imppg/</t>
+  </si>
+  <si>
+    <t>Felopaul AstroSoftware</t>
+  </si>
+  <si>
+    <t>http://www.felopaul.com</t>
+  </si>
+  <si>
+    <t>Useful software tools: MaxPilote, MaxSelector, MaxViewer and more</t>
   </si>
 </sst>
 </file>
@@ -1350,20 +1440,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E109"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D100" sqref="D100"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="78" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="145" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2079,657 +2169,778 @@
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" t="s">
-        <v>200</v>
+        <v>328</v>
       </c>
       <c r="C58" t="s">
-        <v>95</v>
+        <v>329</v>
       </c>
       <c r="D58" t="s">
-        <v>97</v>
+        <v>331</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>96</v>
+        <v>330</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
+      <c r="B59" t="s">
+        <v>200</v>
+      </c>
       <c r="C59" t="s">
-        <v>289</v>
+        <v>95</v>
       </c>
       <c r="D59" t="s">
-        <v>291</v>
+        <v>97</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>290</v>
+        <v>96</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
-      <c r="B60" t="s">
-        <v>202</v>
-      </c>
       <c r="C60" t="s">
-        <v>204</v>
+        <v>289</v>
       </c>
       <c r="D60" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>203</v>
+        <v>290</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
+      <c r="B61" t="s">
+        <v>202</v>
+      </c>
       <c r="C61" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D61" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="C62" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D62" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
-      <c r="B63" t="s">
-        <v>300</v>
-      </c>
       <c r="C63" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="D63" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>306</v>
+        <v>205</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
+      <c r="B64" t="s">
+        <v>300</v>
+      </c>
       <c r="C64" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D64" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="C65" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D65" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="C66" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="D66" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
-      <c r="B67" t="s">
-        <v>286</v>
-      </c>
       <c r="C67" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="D67" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" t="s">
+        <v>286</v>
+      </c>
+      <c r="C68" t="s">
+        <v>287</v>
+      </c>
+      <c r="D68" t="s">
+        <v>292</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="3"/>
+      <c r="B69" t="s">
         <v>201</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C69" t="s">
         <v>175</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D69" t="s">
         <v>176</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="E69" s="2" t="s">
         <v>174</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C69" t="s">
-        <v>72</v>
-      </c>
-      <c r="D69" t="s">
-        <v>73</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C70" t="s">
+        <v>72</v>
+      </c>
+      <c r="D70" t="s">
+        <v>73</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B71" t="s">
         <v>88</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C71" t="s">
         <v>26</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D71" t="s">
         <v>32</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="E71" s="2" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="3"/>
-      <c r="C71" t="s">
-        <v>43</v>
-      </c>
-      <c r="D71" t="s">
-        <v>46</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="C72" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D72" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="C73" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D73" t="s">
         <v>51</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="C74" t="s">
-        <v>189</v>
+        <v>52</v>
       </c>
       <c r="D74" t="s">
-        <v>190</v>
+        <v>51</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="C75" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D75" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="C76" t="s">
-        <v>55</v>
+        <v>192</v>
       </c>
       <c r="D76" t="s">
-        <v>56</v>
+        <v>193</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>54</v>
+        <v>191</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="C77" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D77" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
-      <c r="B78" t="s">
-        <v>89</v>
-      </c>
       <c r="C78" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D78" t="s">
         <v>58</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="C79" t="s">
-        <v>79</v>
+        <v>355</v>
       </c>
       <c r="D79" t="s">
-        <v>58</v>
+        <v>357</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>81</v>
+        <v>356</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
+      <c r="B80" t="s">
+        <v>89</v>
+      </c>
       <c r="C80" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D80" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="C81" t="s">
-        <v>212</v>
+        <v>79</v>
       </c>
       <c r="D81" t="s">
-        <v>214</v>
+        <v>58</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>213</v>
+        <v>81</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="C82" t="s">
-        <v>186</v>
+        <v>62</v>
       </c>
       <c r="D82" t="s">
         <v>80</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>187</v>
+        <v>65</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
-      <c r="B83" t="s">
-        <v>272</v>
-      </c>
       <c r="C83" t="s">
-        <v>273</v>
+        <v>212</v>
       </c>
       <c r="D83" t="s">
-        <v>283</v>
+        <v>214</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>280</v>
+        <v>213</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="C84" t="s">
-        <v>274</v>
+        <v>186</v>
       </c>
       <c r="D84" t="s">
-        <v>283</v>
+        <v>80</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>279</v>
+        <v>187</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="C85" t="s">
-        <v>284</v>
+        <v>352</v>
+      </c>
+      <c r="D85" t="s">
+        <v>353</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>285</v>
+        <v>354</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
+      <c r="B86" t="s">
+        <v>272</v>
+      </c>
       <c r="C86" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D86" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
-      <c r="B87" t="s">
-        <v>91</v>
-      </c>
       <c r="C87" t="s">
-        <v>67</v>
+        <v>274</v>
       </c>
       <c r="D87" t="s">
-        <v>69</v>
+        <v>283</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>68</v>
+        <v>279</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
-      <c r="B88" t="s">
-        <v>90</v>
-      </c>
       <c r="C88" t="s">
-        <v>44</v>
-      </c>
-      <c r="D88" t="s">
-        <v>45</v>
+        <v>284</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>49</v>
+        <v>285</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="C89" t="s">
-        <v>63</v>
+        <v>281</v>
       </c>
       <c r="D89" t="s">
-        <v>66</v>
+        <v>282</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>64</v>
+        <v>278</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
+      <c r="B90" t="s">
+        <v>91</v>
+      </c>
       <c r="C90" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="D90" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
+      <c r="B91" t="s">
+        <v>90</v>
+      </c>
       <c r="C91" t="s">
-        <v>167</v>
+        <v>44</v>
       </c>
       <c r="D91" t="s">
-        <v>169</v>
+        <v>45</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>168</v>
+        <v>49</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B92" t="s">
-        <v>154</v>
-      </c>
+      <c r="A92" s="3"/>
       <c r="C92" t="s">
-        <v>156</v>
+        <v>63</v>
       </c>
       <c r="D92" t="s">
-        <v>166</v>
+        <v>66</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>155</v>
+        <v>64</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="C93" t="s">
-        <v>157</v>
+        <v>27</v>
       </c>
       <c r="D93" t="s">
-        <v>164</v>
+        <v>33</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>158</v>
+        <v>38</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="C94" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D94" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="3"/>
+      <c r="A95" s="3" t="s">
+        <v>153</v>
+      </c>
       <c r="B95" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C95" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D95" t="s">
-        <v>215</v>
+        <v>166</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="C96" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="D96" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="C97" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="D97" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" t="s">
-        <v>275</v>
+        <v>159</v>
       </c>
       <c r="C98" t="s">
-        <v>277</v>
+        <v>161</v>
+      </c>
+      <c r="D98" t="s">
+        <v>215</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>276</v>
+        <v>160</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="C99" t="s">
+        <v>171</v>
+      </c>
+      <c r="D99" t="s">
+        <v>172</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="3"/>
+      <c r="C100" t="s">
+        <v>178</v>
+      </c>
+      <c r="D100" t="s">
+        <v>179</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="3"/>
+      <c r="C101" t="s">
+        <v>345</v>
+      </c>
+      <c r="D101" t="s">
+        <v>346</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="3"/>
+      <c r="B102" t="s">
+        <v>275</v>
+      </c>
+      <c r="C102" t="s">
+        <v>277</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="3"/>
+      <c r="C103" t="s">
         <v>317</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D103" t="s">
         <v>318</v>
       </c>
-      <c r="E99" s="2" t="s">
+      <c r="E103" s="2" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B100" t="s">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="3"/>
+      <c r="C104" t="s">
+        <v>333</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="3"/>
+      <c r="C105" t="s">
+        <v>335</v>
+      </c>
+      <c r="D105" t="s">
+        <v>336</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="3"/>
+      <c r="C106" t="s">
+        <v>337</v>
+      </c>
+      <c r="D106" t="s">
+        <v>339</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
         <v>151</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C107" t="s">
         <v>92</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D107" t="s">
         <v>173</v>
       </c>
-      <c r="E100" s="2" t="s">
+      <c r="E107" s="2" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C101" t="s">
-        <v>93</v>
-      </c>
-      <c r="D101" t="s">
-        <v>173</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B102" t="s">
-        <v>260</v>
-      </c>
-      <c r="C102" t="s">
-        <v>259</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B103" t="s">
-        <v>152</v>
-      </c>
-      <c r="C103" t="s">
-        <v>94</v>
-      </c>
-      <c r="D103" t="s">
-        <v>34</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C104" t="s">
-        <v>294</v>
-      </c>
-      <c r="D104" t="s">
-        <v>295</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="C105" t="s">
-        <v>298</v>
-      </c>
-      <c r="D105" t="s">
-        <v>299</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E106" s="2"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="C107" t="s">
-        <v>264</v>
-      </c>
-      <c r="D107" t="s">
-        <v>263</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
+        <v>93</v>
+      </c>
+      <c r="D108" t="s">
+        <v>173</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>260</v>
+      </c>
+      <c r="C109" t="s">
+        <v>259</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>152</v>
+      </c>
+      <c r="C110" t="s">
+        <v>94</v>
+      </c>
+      <c r="D110" t="s">
+        <v>34</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C111" t="s">
+        <v>294</v>
+      </c>
+      <c r="D111" t="s">
+        <v>295</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C112" t="s">
+        <v>343</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E113" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C114" t="s">
+        <v>348</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E115" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C116" t="s">
+        <v>350</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C117" t="s">
+        <v>298</v>
+      </c>
+      <c r="D117" t="s">
+        <v>299</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E118" s="2"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C119" t="s">
+        <v>264</v>
+      </c>
+      <c r="D119" t="s">
+        <v>263</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C120" t="s">
         <v>269</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D120" t="s">
         <v>270</v>
       </c>
-      <c r="E108" s="2" t="s">
+      <c r="E120" s="2" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C109" t="s">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C121" t="s">
         <v>267</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D121" t="s">
         <v>268</v>
       </c>
-      <c r="E109" s="2" t="s">
+      <c r="E121" s="2" t="s">
         <v>266</v>
       </c>
     </row>
@@ -2746,28 +2957,28 @@
     <hyperlink ref="E29" r:id="rId6" xr:uid="{344342D3-7511-4B9E-B249-4418AD0199BE}"/>
     <hyperlink ref="E45" r:id="rId7" xr:uid="{4EF4F687-5DA0-4139-8ED8-796CFD048723}"/>
     <hyperlink ref="E48" r:id="rId8" xr:uid="{37D7C35D-E37D-46D4-A772-8C5F56A639FB}"/>
-    <hyperlink ref="E103" r:id="rId9" xr:uid="{DD799009-88CA-47D1-A62F-A369A7611629}"/>
-    <hyperlink ref="E101" r:id="rId10" xr:uid="{47871777-D164-4285-88D9-4711D0F09B7A}"/>
-    <hyperlink ref="E100" r:id="rId11" xr:uid="{CD4F6830-69C8-4883-9D38-40F7904D38BC}"/>
-    <hyperlink ref="E90" r:id="rId12" xr:uid="{F287F050-BDBD-48DA-9C9F-974F06AA77BE}"/>
-    <hyperlink ref="E70" r:id="rId13" xr:uid="{46C95A92-BF48-4811-9105-E8D5B1561956}"/>
+    <hyperlink ref="E110" r:id="rId9" xr:uid="{DD799009-88CA-47D1-A62F-A369A7611629}"/>
+    <hyperlink ref="E108" r:id="rId10" xr:uid="{47871777-D164-4285-88D9-4711D0F09B7A}"/>
+    <hyperlink ref="E107" r:id="rId11" xr:uid="{CD4F6830-69C8-4883-9D38-40F7904D38BC}"/>
+    <hyperlink ref="E93" r:id="rId12" xr:uid="{F287F050-BDBD-48DA-9C9F-974F06AA77BE}"/>
+    <hyperlink ref="E71" r:id="rId13" xr:uid="{46C95A92-BF48-4811-9105-E8D5B1561956}"/>
     <hyperlink ref="E56" r:id="rId14" xr:uid="{F39BDEEC-98CD-4603-8BB0-C3A8A97480DF}"/>
     <hyperlink ref="E55" r:id="rId15" xr:uid="{F4EFC9A1-C16B-4301-9043-301231F70123}"/>
-    <hyperlink ref="E71" r:id="rId16" xr:uid="{4CFC1F41-61FD-4074-855F-CF3EEE0D0FDE}"/>
-    <hyperlink ref="E88" r:id="rId17" xr:uid="{E74C0201-0319-40FB-A895-7E89AA462910}"/>
-    <hyperlink ref="E72" r:id="rId18" xr:uid="{1F51060D-CE80-4B4D-8BA3-277A92EE5ECB}"/>
-    <hyperlink ref="E73" r:id="rId19" xr:uid="{7FFDFD49-84C7-44D0-A42D-31A77AD96560}"/>
-    <hyperlink ref="E76" r:id="rId20" xr:uid="{25C2D0D0-29CE-44D1-92ED-0F0E9FDC6C3E}"/>
-    <hyperlink ref="E77" r:id="rId21" xr:uid="{B734E3CD-BAE2-41DD-B996-9058CD6AC298}"/>
-    <hyperlink ref="E78" r:id="rId22" xr:uid="{092C66D6-96F2-4CD7-AB26-5E0E2307F0CC}"/>
-    <hyperlink ref="E80" r:id="rId23" xr:uid="{3A8B895B-D350-4E71-843C-AA2F6E4308FA}"/>
-    <hyperlink ref="E89" r:id="rId24" xr:uid="{33FC1295-8080-4A43-970F-94C51D7E0D5C}"/>
-    <hyperlink ref="E87" r:id="rId25" xr:uid="{B0401EF0-1543-42B9-B581-1F0870C67BB1}"/>
-    <hyperlink ref="E69" r:id="rId26" xr:uid="{0C64FEE0-E696-4121-9E40-CDB19EA4F6DB}"/>
+    <hyperlink ref="E72" r:id="rId16" xr:uid="{4CFC1F41-61FD-4074-855F-CF3EEE0D0FDE}"/>
+    <hyperlink ref="E91" r:id="rId17" xr:uid="{E74C0201-0319-40FB-A895-7E89AA462910}"/>
+    <hyperlink ref="E73" r:id="rId18" xr:uid="{1F51060D-CE80-4B4D-8BA3-277A92EE5ECB}"/>
+    <hyperlink ref="E74" r:id="rId19" xr:uid="{7FFDFD49-84C7-44D0-A42D-31A77AD96560}"/>
+    <hyperlink ref="E77" r:id="rId20" xr:uid="{25C2D0D0-29CE-44D1-92ED-0F0E9FDC6C3E}"/>
+    <hyperlink ref="E78" r:id="rId21" xr:uid="{B734E3CD-BAE2-41DD-B996-9058CD6AC298}"/>
+    <hyperlink ref="E80" r:id="rId22" xr:uid="{092C66D6-96F2-4CD7-AB26-5E0E2307F0CC}"/>
+    <hyperlink ref="E82" r:id="rId23" xr:uid="{3A8B895B-D350-4E71-843C-AA2F6E4308FA}"/>
+    <hyperlink ref="E92" r:id="rId24" xr:uid="{33FC1295-8080-4A43-970F-94C51D7E0D5C}"/>
+    <hyperlink ref="E90" r:id="rId25" xr:uid="{B0401EF0-1543-42B9-B581-1F0870C67BB1}"/>
+    <hyperlink ref="E70" r:id="rId26" xr:uid="{0C64FEE0-E696-4121-9E40-CDB19EA4F6DB}"/>
     <hyperlink ref="E54" r:id="rId27" xr:uid="{53D67402-7738-4BDF-98B9-06D860D9BEAE}"/>
     <hyperlink ref="E46" r:id="rId28" xr:uid="{1B5423F0-F04D-42F6-8909-FE8F05FD6139}"/>
-    <hyperlink ref="E79" r:id="rId29" xr:uid="{C17FC7E6-9650-47B0-ACBB-2F8314255584}"/>
-    <hyperlink ref="E58" r:id="rId30" xr:uid="{9BFC5734-BDBE-4EBF-8D4A-2F3CD3EE5837}"/>
+    <hyperlink ref="E81" r:id="rId29" xr:uid="{C17FC7E6-9650-47B0-ACBB-2F8314255584}"/>
+    <hyperlink ref="E59" r:id="rId30" xr:uid="{9BFC5734-BDBE-4EBF-8D4A-2F3CD3EE5837}"/>
     <hyperlink ref="E39" r:id="rId31" xr:uid="{EFFC63C1-3263-4F38-BEF9-B44368779D7D}"/>
     <hyperlink ref="E23" r:id="rId32" xr:uid="{4C0B3322-8974-41C4-B9BC-9DE774765E48}"/>
     <hyperlink ref="E14" r:id="rId33" xr:uid="{C6090F8D-793A-4C1C-AFF0-60C9FEAA5436}"/>
@@ -2791,26 +3002,26 @@
     <hyperlink ref="E22" r:id="rId51" xr:uid="{F4959ACE-BAAD-4BBF-A3A3-74BCDAE0A5DB}"/>
     <hyperlink ref="E32" r:id="rId52" xr:uid="{7ADB43B5-35FA-4D42-988A-B2D1294BA04B}"/>
     <hyperlink ref="E18" r:id="rId53" xr:uid="{B71E3A4C-0BE4-418A-AD44-A3B9C80A8D4D}"/>
-    <hyperlink ref="E92" r:id="rId54" xr:uid="{3372A9D1-D915-4DA8-B562-4F013CBDFF76}"/>
-    <hyperlink ref="E93" r:id="rId55" xr:uid="{39149B7F-BBEE-4473-BF84-CFE54479256C}"/>
-    <hyperlink ref="E95" r:id="rId56" xr:uid="{DB6705BF-0FC9-4D4D-A073-C2F2B8EA2793}"/>
-    <hyperlink ref="E94" r:id="rId57" xr:uid="{38E211F4-5E12-4479-847B-6B28228032FD}"/>
-    <hyperlink ref="E91" r:id="rId58" xr:uid="{9CD2469D-1662-4D5A-8280-5F952192CF30}"/>
-    <hyperlink ref="E96" r:id="rId59" xr:uid="{070970E4-CFED-4A08-BDD0-670D25B8D207}"/>
-    <hyperlink ref="E68" r:id="rId60" xr:uid="{0076E308-B71E-45FD-BC55-48C21C5B96AF}"/>
-    <hyperlink ref="E97" r:id="rId61" xr:uid="{763A828E-7BC6-4D90-8EEF-4CD02DB7C3F0}"/>
+    <hyperlink ref="E95" r:id="rId54" xr:uid="{3372A9D1-D915-4DA8-B562-4F013CBDFF76}"/>
+    <hyperlink ref="E96" r:id="rId55" xr:uid="{39149B7F-BBEE-4473-BF84-CFE54479256C}"/>
+    <hyperlink ref="E98" r:id="rId56" xr:uid="{DB6705BF-0FC9-4D4D-A073-C2F2B8EA2793}"/>
+    <hyperlink ref="E97" r:id="rId57" xr:uid="{38E211F4-5E12-4479-847B-6B28228032FD}"/>
+    <hyperlink ref="E94" r:id="rId58" xr:uid="{9CD2469D-1662-4D5A-8280-5F952192CF30}"/>
+    <hyperlink ref="E99" r:id="rId59" xr:uid="{070970E4-CFED-4A08-BDD0-670D25B8D207}"/>
+    <hyperlink ref="E69" r:id="rId60" xr:uid="{0076E308-B71E-45FD-BC55-48C21C5B96AF}"/>
+    <hyperlink ref="E100" r:id="rId61" xr:uid="{763A828E-7BC6-4D90-8EEF-4CD02DB7C3F0}"/>
     <hyperlink ref="E42" r:id="rId62" xr:uid="{E211F1CB-64DC-42B2-82D4-109795429332}"/>
     <hyperlink ref="E38" r:id="rId63" xr:uid="{3C45DE30-C557-4859-9A22-F0EE92A94F50}"/>
-    <hyperlink ref="E82" r:id="rId64" xr:uid="{32DCA834-2A5E-4BA5-B172-8B41E716962E}"/>
-    <hyperlink ref="E74" r:id="rId65" xr:uid="{56AC298B-168D-4D78-AF50-6194DBC8ED0F}"/>
-    <hyperlink ref="E75" r:id="rId66" xr:uid="{A7949532-A8E6-4BFA-B244-C9F15CF64209}"/>
+    <hyperlink ref="E84" r:id="rId64" xr:uid="{32DCA834-2A5E-4BA5-B172-8B41E716962E}"/>
+    <hyperlink ref="E75" r:id="rId65" xr:uid="{56AC298B-168D-4D78-AF50-6194DBC8ED0F}"/>
+    <hyperlink ref="E76" r:id="rId66" xr:uid="{A7949532-A8E6-4BFA-B244-C9F15CF64209}"/>
     <hyperlink ref="E11" r:id="rId67" xr:uid="{F7C48F25-092D-4D0C-9A81-AC06044877A5}"/>
     <hyperlink ref="E57" r:id="rId68" xr:uid="{83B1CDC4-0B45-4DB8-AE85-EF172098481E}"/>
-    <hyperlink ref="E60" r:id="rId69" xr:uid="{8867D8EC-D14E-4966-8966-840905B28B60}"/>
-    <hyperlink ref="E62" r:id="rId70" xr:uid="{03273EBF-9D6C-4B3A-B0CF-E3F275300784}"/>
-    <hyperlink ref="E61" r:id="rId71" xr:uid="{69432D99-C01E-4209-ACF7-A280CE361488}"/>
+    <hyperlink ref="E61" r:id="rId69" xr:uid="{8867D8EC-D14E-4966-8966-840905B28B60}"/>
+    <hyperlink ref="E63" r:id="rId70" xr:uid="{03273EBF-9D6C-4B3A-B0CF-E3F275300784}"/>
+    <hyperlink ref="E62" r:id="rId71" xr:uid="{69432D99-C01E-4209-ACF7-A280CE361488}"/>
     <hyperlink ref="E44" r:id="rId72" xr:uid="{9A81B9F8-2206-440A-8F02-94A6D682B8AD}"/>
-    <hyperlink ref="E81" r:id="rId73" xr:uid="{E1E70935-49E6-4C4C-BAF0-008E8ABB41A3}"/>
+    <hyperlink ref="E83" r:id="rId73" xr:uid="{E1E70935-49E6-4C4C-BAF0-008E8ABB41A3}"/>
     <hyperlink ref="E19" r:id="rId74" xr:uid="{F53B7D93-AD80-48B7-BF64-C172BBCED456}"/>
     <hyperlink ref="E26" r:id="rId75" xr:uid="{A03A4C49-02B7-4A3F-AB77-0D70B233DC7D}"/>
     <hyperlink ref="E28" r:id="rId76" xr:uid="{58C0BC32-85D5-4FC4-A35D-980070F963D3}"/>
@@ -2827,27 +3038,39 @@
     <hyperlink ref="E36" r:id="rId87" xr:uid="{3880EABE-2C99-4DEE-BD6E-614133BBD597}"/>
     <hyperlink ref="E27" r:id="rId88" xr:uid="{FD7B1F31-65D8-4675-BFF0-AA0389F9071F}"/>
     <hyperlink ref="E7" r:id="rId89" xr:uid="{ADDC9518-B660-4A14-8B25-3494F4DE58FD}"/>
-    <hyperlink ref="E102" r:id="rId90" xr:uid="{6F4A7E63-C898-43C4-A859-C47841CAE439}"/>
-    <hyperlink ref="E107" r:id="rId91" xr:uid="{4B33DA6F-FA1C-4653-A331-09DBF24F2C78}"/>
-    <hyperlink ref="E108" r:id="rId92" xr:uid="{8181801C-F28E-4601-A342-C272A1A80CD5}"/>
-    <hyperlink ref="E109" r:id="rId93" xr:uid="{F7F65E02-7308-4800-9A21-22482BEC1E5B}"/>
-    <hyperlink ref="E83" r:id="rId94" xr:uid="{6D8EDDA3-E40E-4D50-916D-EF3850663BBC}"/>
-    <hyperlink ref="E84" r:id="rId95" xr:uid="{0F09D3FC-B39E-4273-A07E-1E99C0E144BB}"/>
-    <hyperlink ref="E98" r:id="rId96" xr:uid="{0DCC2978-2CE6-45AC-B8BC-8B045192F0C9}"/>
-    <hyperlink ref="E86" r:id="rId97" xr:uid="{712D7F26-B672-4BE2-B51B-ED2CBC48279F}"/>
-    <hyperlink ref="E85" r:id="rId98" xr:uid="{8E169065-B987-47E8-8E50-CA4F6ED2C96E}"/>
-    <hyperlink ref="E67" r:id="rId99" xr:uid="{C02F0453-54B0-446F-9DEB-5A87ADC19BEB}"/>
-    <hyperlink ref="E59" r:id="rId100" xr:uid="{2D956993-77DD-49DB-866D-82402FC7696B}"/>
-    <hyperlink ref="E104" r:id="rId101" xr:uid="{ACB8A302-FC5B-4452-B424-C8CB3DEE4FA0}"/>
-    <hyperlink ref="E105" r:id="rId102" xr:uid="{83CE61C1-D738-4C92-BC0A-064601C0BCA2}"/>
-    <hyperlink ref="E66" r:id="rId103" xr:uid="{70EAB6FC-3E29-49B0-9457-A822474F361E}"/>
-    <hyperlink ref="E63" r:id="rId104" xr:uid="{88413F84-ACBE-46E1-82EA-C9C1DFDE61F8}"/>
-    <hyperlink ref="E65" r:id="rId105" xr:uid="{D3CCCE93-E500-4ABE-AAF0-8A60345F6819}"/>
-    <hyperlink ref="E64" r:id="rId106" xr:uid="{369033E1-9E29-4D2B-A541-6FE7834DC211}"/>
-    <hyperlink ref="E99" r:id="rId107" xr:uid="{80539D3E-C02E-4D16-83A9-5FAD80D4BF60}"/>
+    <hyperlink ref="E109" r:id="rId90" xr:uid="{6F4A7E63-C898-43C4-A859-C47841CAE439}"/>
+    <hyperlink ref="E119" r:id="rId91" xr:uid="{4B33DA6F-FA1C-4653-A331-09DBF24F2C78}"/>
+    <hyperlink ref="E120" r:id="rId92" xr:uid="{8181801C-F28E-4601-A342-C272A1A80CD5}"/>
+    <hyperlink ref="E121" r:id="rId93" xr:uid="{F7F65E02-7308-4800-9A21-22482BEC1E5B}"/>
+    <hyperlink ref="E86" r:id="rId94" xr:uid="{6D8EDDA3-E40E-4D50-916D-EF3850663BBC}"/>
+    <hyperlink ref="E87" r:id="rId95" xr:uid="{0F09D3FC-B39E-4273-A07E-1E99C0E144BB}"/>
+    <hyperlink ref="E102" r:id="rId96" xr:uid="{0DCC2978-2CE6-45AC-B8BC-8B045192F0C9}"/>
+    <hyperlink ref="E89" r:id="rId97" xr:uid="{712D7F26-B672-4BE2-B51B-ED2CBC48279F}"/>
+    <hyperlink ref="E88" r:id="rId98" xr:uid="{8E169065-B987-47E8-8E50-CA4F6ED2C96E}"/>
+    <hyperlink ref="E68" r:id="rId99" xr:uid="{C02F0453-54B0-446F-9DEB-5A87ADC19BEB}"/>
+    <hyperlink ref="E60" r:id="rId100" xr:uid="{2D956993-77DD-49DB-866D-82402FC7696B}"/>
+    <hyperlink ref="E111" r:id="rId101" xr:uid="{ACB8A302-FC5B-4452-B424-C8CB3DEE4FA0}"/>
+    <hyperlink ref="E117" r:id="rId102" xr:uid="{83CE61C1-D738-4C92-BC0A-064601C0BCA2}"/>
+    <hyperlink ref="E67" r:id="rId103" xr:uid="{70EAB6FC-3E29-49B0-9457-A822474F361E}"/>
+    <hyperlink ref="E64" r:id="rId104" xr:uid="{88413F84-ACBE-46E1-82EA-C9C1DFDE61F8}"/>
+    <hyperlink ref="E66" r:id="rId105" xr:uid="{D3CCCE93-E500-4ABE-AAF0-8A60345F6819}"/>
+    <hyperlink ref="E65" r:id="rId106" xr:uid="{369033E1-9E29-4D2B-A541-6FE7834DC211}"/>
+    <hyperlink ref="E103" r:id="rId107" xr:uid="{80539D3E-C02E-4D16-83A9-5FAD80D4BF60}"/>
+    <hyperlink ref="E58" r:id="rId108" xr:uid="{4203A3BD-C346-4192-B7E6-4A2A988EAF9F}"/>
+    <hyperlink ref="E104" r:id="rId109" xr:uid="{F95439ED-3244-469F-ABEE-D67DEB185AD8}"/>
+    <hyperlink ref="E105" r:id="rId110" xr:uid="{FD9A86DE-409B-4709-9006-CFDA3F98A874}"/>
+    <hyperlink ref="E106" r:id="rId111" xr:uid="{704A3B84-B831-418B-B914-EA2354ED7072}"/>
+    <hyperlink ref="E112" r:id="rId112" xr:uid="{BB6DA77E-BDF5-4853-A019-995073051DBE}"/>
+    <hyperlink ref="E113" r:id="rId113" xr:uid="{107A3D8B-D683-46B5-BF96-F5DA6F8EB0E6}"/>
+    <hyperlink ref="E101" r:id="rId114" xr:uid="{81EA6AB2-9E67-4C7C-884D-ED6CE9673FFC}"/>
+    <hyperlink ref="E114" r:id="rId115" xr:uid="{1A28A602-BFA1-4A8F-926A-3A0F75F2F404}"/>
+    <hyperlink ref="E116" r:id="rId116" xr:uid="{2A04CCDF-20FB-4D41-9240-F06660FD2559}"/>
+    <hyperlink ref="E115" r:id="rId117" xr:uid="{188C3A24-277A-4E05-9943-979AC041FDD6}"/>
+    <hyperlink ref="E85" r:id="rId118" xr:uid="{A3F17579-0975-406B-AF5B-1307EBE7C2E2}"/>
+    <hyperlink ref="E79" r:id="rId119" xr:uid="{A2B29801-91A3-4667-9E85-6DCE430E72B1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId108"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId120"/>
 </worksheet>
 </file>
 
@@ -2855,7 +3078,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9660FEEF-D01E-46FB-B675-E8067BA1B9C2}">
   <dimension ref="B2:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
